--- a/TradingSimula_18-2022/TF-Covel_1R.xlsx
+++ b/TradingSimula_18-2022/TF-Covel_1R.xlsx
@@ -158,12 +158,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EquityCurve'!$A$3:$A$148</f>
+              <f>'EquityCurve'!$A$3:$A$174</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EquityCurve'!$B$2:$B$148</f>
+              <f>'EquityCurve'!$B$2:$B$174</f>
             </numRef>
           </val>
         </ser>
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B149"/>
+  <dimension ref="A1:B175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,7 +594,7 @@
         <v>40207</v>
       </c>
       <c r="B3" t="n">
-        <v>-811.9999999999859</v>
+        <v>-300.0000000000164</v>
       </c>
     </row>
     <row r="4">
@@ -602,7 +602,7 @@
         <v>40235</v>
       </c>
       <c r="B4" t="n">
-        <v>-4536.599999999993</v>
+        <v>5456.249999999975</v>
       </c>
     </row>
     <row r="5">
@@ -610,7 +610,7 @@
         <v>40268</v>
       </c>
       <c r="B5" t="n">
-        <v>-1702.299999999978</v>
+        <v>3462.499999999945</v>
       </c>
     </row>
     <row r="6">
@@ -618,7 +618,7 @@
         <v>40298</v>
       </c>
       <c r="B6" t="n">
-        <v>-1397.474999999954</v>
+        <v>1968.724999999911</v>
       </c>
     </row>
     <row r="7">
@@ -626,7 +626,7 @@
         <v>40326</v>
       </c>
       <c r="B7" t="n">
-        <v>5253.079500000074</v>
+        <v>13314.97949999987</v>
       </c>
     </row>
     <row r="8">
@@ -634,7 +634,7 @@
         <v>40359</v>
       </c>
       <c r="B8" t="n">
-        <v>7340.892500000056</v>
+        <v>21930.29249999984</v>
       </c>
     </row>
     <row r="9">
@@ -642,7 +642,7 @@
         <v>40389</v>
       </c>
       <c r="B9" t="n">
-        <v>9023.029500000073</v>
+        <v>23832.47949999987</v>
       </c>
     </row>
     <row r="10">
@@ -650,7 +650,7 @@
         <v>40421</v>
       </c>
       <c r="B10" t="n">
-        <v>19604.34700000008</v>
+        <v>36040.94699999985</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         <v>40451</v>
       </c>
       <c r="B11" t="n">
-        <v>47200.27750000007</v>
+        <v>33629.67749999982</v>
       </c>
     </row>
     <row r="12">
@@ -666,7 +666,7 @@
         <v>40480</v>
       </c>
       <c r="B12" t="n">
-        <v>85652.73200000006</v>
+        <v>45204.0819999998</v>
       </c>
     </row>
     <row r="13">
@@ -674,7 +674,7 @@
         <v>40512</v>
       </c>
       <c r="B13" t="n">
-        <v>97665.45400000006</v>
+        <v>33421.95399999977</v>
       </c>
     </row>
     <row r="14">
@@ -682,7 +682,7 @@
         <v>40543</v>
       </c>
       <c r="B14" t="n">
-        <v>122169.3335000001</v>
+        <v>38816.93349999977</v>
       </c>
     </row>
     <row r="15">
@@ -690,7 +690,7 @@
         <v>40574</v>
       </c>
       <c r="B15" t="n">
-        <v>114446.9890000001</v>
+        <v>42057.58899999976</v>
       </c>
     </row>
     <row r="16">
@@ -698,7 +698,7 @@
         <v>40602</v>
       </c>
       <c r="B16" t="n">
-        <v>131635.5490000001</v>
+        <v>38752.59899999975</v>
       </c>
     </row>
     <row r="17">
@@ -706,7 +706,7 @@
         <v>40633</v>
       </c>
       <c r="B17" t="n">
-        <v>144010.5490000001</v>
+        <v>31240.09899999971</v>
       </c>
     </row>
     <row r="18">
@@ -714,7 +714,7 @@
         <v>40662</v>
       </c>
       <c r="B18" t="n">
-        <v>210611.3490000001</v>
+        <v>39010.09899999968</v>
       </c>
     </row>
     <row r="19">
@@ -722,7 +722,7 @@
         <v>40694</v>
       </c>
       <c r="B19" t="n">
-        <v>165716.6165000001</v>
+        <v>32624.76649999969</v>
       </c>
     </row>
     <row r="20">
@@ -730,7 +730,7 @@
         <v>40724</v>
       </c>
       <c r="B20" t="n">
-        <v>164293.7840000001</v>
+        <v>28850.68399999968</v>
       </c>
     </row>
     <row r="21">
@@ -738,7 +738,7 @@
         <v>40753</v>
       </c>
       <c r="B21" t="n">
-        <v>182035.6765000001</v>
+        <v>31775.97649999967</v>
       </c>
     </row>
     <row r="22">
@@ -746,7 +746,7 @@
         <v>40786</v>
       </c>
       <c r="B22" t="n">
-        <v>204280.0765000001</v>
+        <v>41615.97649999963</v>
       </c>
     </row>
     <row r="23">
@@ -754,7 +754,7 @@
         <v>40816</v>
       </c>
       <c r="B23" t="n">
-        <v>238242.4070000001</v>
+        <v>52991.6069999996</v>
       </c>
     </row>
     <row r="24">
@@ -762,7 +762,7 @@
         <v>40847</v>
       </c>
       <c r="B24" t="n">
-        <v>212244.8820000001</v>
+        <v>36266.58199999956</v>
       </c>
     </row>
     <row r="25">
@@ -770,7 +770,7 @@
         <v>40877</v>
       </c>
       <c r="B25" t="n">
-        <v>212745.6820000001</v>
+        <v>36266.58199999956</v>
       </c>
     </row>
     <row r="26">
@@ -778,7 +778,7 @@
         <v>40907</v>
       </c>
       <c r="B26" t="n">
-        <v>200946.2670000001</v>
+        <v>38036.61699999953</v>
       </c>
     </row>
     <row r="27">
@@ -786,7 +786,7 @@
         <v>40939</v>
       </c>
       <c r="B27" t="n">
-        <v>178020.4965000001</v>
+        <v>38992.2964999995</v>
       </c>
     </row>
     <row r="28">
@@ -794,7 +794,7 @@
         <v>40968</v>
       </c>
       <c r="B28" t="n">
-        <v>168763.3390000001</v>
+        <v>45953.88899999947</v>
       </c>
     </row>
     <row r="29">
@@ -802,7 +802,7 @@
         <v>40998</v>
       </c>
       <c r="B29" t="n">
-        <v>156506.0565000001</v>
+        <v>51239.80649999946</v>
       </c>
     </row>
     <row r="30">
@@ -810,7 +810,7 @@
         <v>41029</v>
       </c>
       <c r="B30" t="n">
-        <v>153980.561</v>
+        <v>48319.81099999943</v>
       </c>
     </row>
     <row r="31">
@@ -818,7 +818,7 @@
         <v>41060</v>
       </c>
       <c r="B31" t="n">
-        <v>179654.5155</v>
+        <v>60673.51549999943</v>
       </c>
     </row>
     <row r="32">
@@ -826,7 +826,7 @@
         <v>41089</v>
       </c>
       <c r="B32" t="n">
-        <v>157228.371</v>
+        <v>48858.52099999942</v>
       </c>
     </row>
     <row r="33">
@@ -834,7 +834,7 @@
         <v>41121</v>
       </c>
       <c r="B33" t="n">
-        <v>160203.6680000001</v>
+        <v>51261.3179999994</v>
       </c>
     </row>
     <row r="34">
@@ -842,7 +842,7 @@
         <v>41152</v>
       </c>
       <c r="B34" t="n">
-        <v>160254.2985</v>
+        <v>51649.4484999994</v>
       </c>
     </row>
     <row r="35">
@@ -850,7 +850,7 @@
         <v>41180</v>
       </c>
       <c r="B35" t="n">
-        <v>184413.6835</v>
+        <v>46152.58349999938</v>
       </c>
     </row>
     <row r="36">
@@ -858,7 +858,7 @@
         <v>41213</v>
       </c>
       <c r="B36" t="n">
-        <v>169105.413</v>
+        <v>44671.96299999937</v>
       </c>
     </row>
     <row r="37">
@@ -866,7 +866,7 @@
         <v>41243</v>
       </c>
       <c r="B37" t="n">
-        <v>167145.7675</v>
+        <v>42559.46749999933</v>
       </c>
     </row>
     <row r="38">
@@ -874,7 +874,7 @@
         <v>41274</v>
       </c>
       <c r="B38" t="n">
-        <v>164720.235</v>
+        <v>48302.33499999929</v>
       </c>
     </row>
     <row r="39">
@@ -882,7 +882,7 @@
         <v>41305</v>
       </c>
       <c r="B39" t="n">
-        <v>148892.0405</v>
+        <v>55677.99049999926</v>
       </c>
     </row>
     <row r="40">
@@ -890,7 +890,7 @@
         <v>41333</v>
       </c>
       <c r="B40" t="n">
-        <v>154874.383</v>
+        <v>54930.7829999992</v>
       </c>
     </row>
     <row r="41">
@@ -898,7 +898,7 @@
         <v>41362</v>
       </c>
       <c r="B41" t="n">
-        <v>151191.8829999999</v>
+        <v>53294.43299999918</v>
       </c>
     </row>
     <row r="42">
@@ -906,7 +906,7 @@
         <v>41394</v>
       </c>
       <c r="B42" t="n">
-        <v>185131.9005</v>
+        <v>45775.35049999914</v>
       </c>
     </row>
     <row r="43">
@@ -914,7 +914,7 @@
         <v>41425</v>
       </c>
       <c r="B43" t="n">
-        <v>189908.1485</v>
+        <v>51039.34849999911</v>
       </c>
     </row>
     <row r="44">
@@ -922,7 +922,7 @@
         <v>41453</v>
       </c>
       <c r="B44" t="n">
-        <v>217194.8854999999</v>
+        <v>58074.6854999991</v>
       </c>
     </row>
     <row r="45">
@@ -930,7 +930,7 @@
         <v>41486</v>
       </c>
       <c r="B45" t="n">
-        <v>203916.4529999999</v>
+        <v>56721.9029999991</v>
       </c>
     </row>
     <row r="46">
@@ -938,7 +938,7 @@
         <v>41516</v>
       </c>
       <c r="B46" t="n">
-        <v>192797.7324999999</v>
+        <v>51978.18249999906</v>
       </c>
     </row>
     <row r="47">
@@ -946,7 +946,7 @@
         <v>41547</v>
       </c>
       <c r="B47" t="n">
-        <v>188496.3749999999</v>
+        <v>54689.72499999904</v>
       </c>
     </row>
     <row r="48">
@@ -954,7 +954,7 @@
         <v>41578</v>
       </c>
       <c r="B48" t="n">
-        <v>190866.7295</v>
+        <v>54514.12949999898</v>
       </c>
     </row>
     <row r="49">
@@ -962,7 +962,7 @@
         <v>41607</v>
       </c>
       <c r="B49" t="n">
-        <v>188851.135</v>
+        <v>57759.78499999896</v>
       </c>
     </row>
     <row r="50">
@@ -970,7 +970,7 @@
         <v>41639</v>
       </c>
       <c r="B50" t="n">
-        <v>185341.635</v>
+        <v>62363.53499999894</v>
       </c>
     </row>
     <row r="51">
@@ -978,7 +978,7 @@
         <v>41670</v>
       </c>
       <c r="B51" t="n">
-        <v>173974.3349999999</v>
+        <v>51424.78499999893</v>
       </c>
     </row>
     <row r="52">
@@ -986,7 +986,7 @@
         <v>41698</v>
       </c>
       <c r="B52" t="n">
-        <v>172404.2849999999</v>
+        <v>53194.73499999894</v>
       </c>
     </row>
     <row r="53">
@@ -994,7 +994,7 @@
         <v>41729</v>
       </c>
       <c r="B53" t="n">
-        <v>168159.8199999999</v>
+        <v>45866.51999999891</v>
       </c>
     </row>
     <row r="54">
@@ -1002,7 +1002,7 @@
         <v>41759</v>
       </c>
       <c r="B54" t="n">
-        <v>165220.9699999999</v>
+        <v>40283.9199999989</v>
       </c>
     </row>
     <row r="55">
@@ -1010,7 +1010,7 @@
         <v>41789</v>
       </c>
       <c r="B55" t="n">
-        <v>164514.4374999999</v>
+        <v>17674.88749999902</v>
       </c>
     </row>
     <row r="56">
@@ -1018,7 +1018,7 @@
         <v>41820</v>
       </c>
       <c r="B56" t="n">
-        <v>158000.9799999999</v>
+        <v>17915.179999999</v>
       </c>
     </row>
     <row r="57">
@@ -1026,7 +1026,7 @@
         <v>41851</v>
       </c>
       <c r="B57" t="n">
-        <v>162855.7299999999</v>
+        <v>16968.82999999898</v>
       </c>
     </row>
     <row r="58">
@@ -1034,7 +1034,7 @@
         <v>41880</v>
       </c>
       <c r="B58" t="n">
-        <v>163583.0474999998</v>
+        <v>-32634.00250000093</v>
       </c>
     </row>
     <row r="59">
@@ -1042,7 +1042,7 @@
         <v>41912</v>
       </c>
       <c r="B59" t="n">
-        <v>172383.4194999998</v>
+        <v>-37799.33050000078</v>
       </c>
     </row>
     <row r="60">
@@ -1050,7 +1050,7 @@
         <v>41943</v>
       </c>
       <c r="B60" t="n">
-        <v>163660.2599999999</v>
+        <v>-138989.9900000004</v>
       </c>
     </row>
     <row r="61">
@@ -1058,7 +1058,7 @@
         <v>41971</v>
       </c>
       <c r="B61" t="n">
-        <v>161752.7599999999</v>
+        <v>-72872.4900000004</v>
       </c>
     </row>
     <row r="62">
@@ -1066,7 +1066,7 @@
         <v>42004</v>
       </c>
       <c r="B62" t="n">
-        <v>153712.2599999999</v>
+        <v>-119608.7400000002</v>
       </c>
     </row>
     <row r="63">
@@ -1074,7 +1074,7 @@
         <v>42034</v>
       </c>
       <c r="B63" t="n">
-        <v>168627.4154999999</v>
+        <v>-161305.6345</v>
       </c>
     </row>
     <row r="64">
@@ -1082,7 +1082,7 @@
         <v>42062</v>
       </c>
       <c r="B64" t="n">
-        <v>155381.1449999999</v>
+        <v>-158238.1549999998</v>
       </c>
     </row>
     <row r="65">
@@ -1090,7 +1090,7 @@
         <v>42094</v>
       </c>
       <c r="B65" t="n">
-        <v>157441.9449999999</v>
+        <v>-187401.9049999997</v>
       </c>
     </row>
     <row r="66">
@@ -1098,7 +1098,7 @@
         <v>42124</v>
       </c>
       <c r="B66" t="n">
-        <v>153732.8919999999</v>
+        <v>-192044.7079999997</v>
       </c>
     </row>
     <row r="67">
@@ -1106,7 +1106,7 @@
         <v>42153</v>
       </c>
       <c r="B67" t="n">
-        <v>147304.7919999999</v>
+        <v>-215526.0579999995</v>
       </c>
     </row>
     <row r="68">
@@ -1114,7 +1114,7 @@
         <v>42185</v>
       </c>
       <c r="B68" t="n">
-        <v>144603.7419999999</v>
+        <v>-229602.3079999994</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         <v>42216</v>
       </c>
       <c r="B69" t="n">
-        <v>156260.3919999999</v>
+        <v>-320148.6079999989</v>
       </c>
     </row>
     <row r="70">
@@ -1130,7 +1130,7 @@
         <v>42247</v>
       </c>
       <c r="B70" t="n">
-        <v>150114.1094999999</v>
+        <v>-217013.8904999989</v>
       </c>
     </row>
     <row r="71">
@@ -1138,7 +1138,7 @@
         <v>42277</v>
       </c>
       <c r="B71" t="n">
-        <v>147505.7019999999</v>
+        <v>-238428.5479999988</v>
       </c>
     </row>
     <row r="72">
@@ -1146,7 +1146,7 @@
         <v>42307</v>
       </c>
       <c r="B72" t="n">
-        <v>142608.3369999999</v>
+        <v>-242920.3629999988</v>
       </c>
     </row>
     <row r="73">
@@ -1154,7 +1154,7 @@
         <v>42338</v>
       </c>
       <c r="B73" t="n">
-        <v>145202.9369999999</v>
+        <v>-240454.1129999988</v>
       </c>
     </row>
     <row r="74">
@@ -1162,7 +1162,7 @@
         <v>42369</v>
       </c>
       <c r="B74" t="n">
-        <v>138441.8369999999</v>
+        <v>-249897.8629999988</v>
       </c>
     </row>
     <row r="75">
@@ -1170,7 +1170,7 @@
         <v>42398</v>
       </c>
       <c r="B75" t="n">
-        <v>136793.0619999999</v>
+        <v>-318082.8879999989</v>
       </c>
     </row>
     <row r="76">
@@ -1178,7 +1178,7 @@
         <v>42429</v>
       </c>
       <c r="B76" t="n">
-        <v>147807.6665</v>
+        <v>-315626.6334999987</v>
       </c>
     </row>
     <row r="77">
@@ -1186,7 +1186,7 @@
         <v>42460</v>
       </c>
       <c r="B77" t="n">
-        <v>135592.509</v>
+        <v>-320908.8409999987</v>
       </c>
     </row>
     <row r="78">
@@ -1194,7 +1194,7 @@
         <v>42489</v>
       </c>
       <c r="B78" t="n">
-        <v>143256.7089999999</v>
+        <v>-325456.3409999987</v>
       </c>
     </row>
     <row r="79">
@@ -1202,7 +1202,7 @@
         <v>42521</v>
       </c>
       <c r="B79" t="n">
-        <v>135909.109</v>
+        <v>-344247.5909999985</v>
       </c>
     </row>
     <row r="80">
@@ -1210,7 +1210,7 @@
         <v>42551</v>
       </c>
       <c r="B80" t="n">
-        <v>144126.5015</v>
+        <v>-466850.3984999981</v>
       </c>
     </row>
     <row r="81">
@@ -1218,7 +1218,7 @@
         <v>42580</v>
       </c>
       <c r="B81" t="n">
-        <v>150187.669</v>
+        <v>-434423.8309999979</v>
       </c>
     </row>
     <row r="82">
@@ -1226,7 +1226,7 @@
         <v>42613</v>
       </c>
       <c r="B82" t="n">
-        <v>144747.669</v>
+        <v>-459236.3309999975</v>
       </c>
     </row>
     <row r="83">
@@ -1234,7 +1234,7 @@
         <v>42643</v>
       </c>
       <c r="B83" t="n">
-        <v>146170.069</v>
+        <v>-460291.3309999975</v>
       </c>
     </row>
     <row r="84">
@@ -1242,7 +1242,7 @@
         <v>42674</v>
       </c>
       <c r="B84" t="n">
-        <v>146356.2485</v>
+        <v>-459463.8514999975</v>
       </c>
     </row>
     <row r="85">
@@ -1250,7 +1250,7 @@
         <v>42704</v>
       </c>
       <c r="B85" t="n">
-        <v>179078.8085</v>
+        <v>-588550.0414999969</v>
       </c>
     </row>
     <row r="86">
@@ -1258,7 +1258,7 @@
         <v>42734</v>
       </c>
       <c r="B86" t="n">
-        <v>178149.3705</v>
+        <v>-524448.5294999968</v>
       </c>
     </row>
     <row r="87">
@@ -1266,7 +1266,7 @@
         <v>42766</v>
       </c>
       <c r="B87" t="n">
-        <v>173369.876</v>
+        <v>-540735.3739999967</v>
       </c>
     </row>
     <row r="88">
@@ -1274,7 +1274,7 @@
         <v>42794</v>
       </c>
       <c r="B88" t="n">
-        <v>171569.876</v>
+        <v>-430432.8739999967</v>
       </c>
     </row>
     <row r="89">
@@ -1282,7 +1282,7 @@
         <v>42825</v>
       </c>
       <c r="B89" t="n">
-        <v>165858.376</v>
+        <v>-437047.9739999966</v>
       </c>
     </row>
     <row r="90">
@@ -1290,7 +1290,7 @@
         <v>42853</v>
       </c>
       <c r="B90" t="n">
-        <v>163612.6185</v>
+        <v>-434096.4314999965</v>
       </c>
     </row>
     <row r="91">
@@ -1298,7 +1298,7 @@
         <v>42886</v>
       </c>
       <c r="B91" t="n">
-        <v>155317.7405</v>
+        <v>-432836.1094999965</v>
       </c>
     </row>
     <row r="92">
@@ -1306,7 +1306,7 @@
         <v>42916</v>
       </c>
       <c r="B92" t="n">
-        <v>157250.0710000001</v>
+        <v>-429386.1289999963</v>
       </c>
     </row>
     <row r="93">
@@ -1314,7 +1314,7 @@
         <v>42947</v>
       </c>
       <c r="B93" t="n">
-        <v>158311.3710000001</v>
+        <v>-388769.9289999962</v>
       </c>
     </row>
     <row r="94">
@@ -1322,7 +1322,7 @@
         <v>42978</v>
       </c>
       <c r="B94" t="n">
-        <v>164439.7885000001</v>
+        <v>-405024.011499996</v>
       </c>
     </row>
     <row r="95">
@@ -1330,7 +1330,7 @@
         <v>43007</v>
       </c>
       <c r="B95" t="n">
-        <v>154785.3930000001</v>
+        <v>-383615.9069999958</v>
       </c>
     </row>
     <row r="96">
@@ -1338,7 +1338,7 @@
         <v>43039</v>
       </c>
       <c r="B96" t="n">
-        <v>152359.4855000001</v>
+        <v>-282194.3144999958</v>
       </c>
     </row>
     <row r="97">
@@ -1346,7 +1346,7 @@
         <v>43069</v>
       </c>
       <c r="B97" t="n">
-        <v>152959.4855000001</v>
+        <v>-211866.8144999956</v>
       </c>
     </row>
     <row r="98">
@@ -1354,7 +1354,7 @@
         <v>43098</v>
       </c>
       <c r="B98" t="n">
-        <v>152606.6735000001</v>
+        <v>-165204.6264999956</v>
       </c>
     </row>
     <row r="99">
@@ -1362,7 +1362,7 @@
         <v>43131</v>
       </c>
       <c r="B99" t="n">
-        <v>155033.9985000001</v>
+        <v>4142.198500004422</v>
       </c>
     </row>
     <row r="100">
@@ -1370,7 +1370,7 @@
         <v>43159</v>
       </c>
       <c r="B100" t="n">
-        <v>156328.7455000001</v>
+        <v>-62459.35449999548</v>
       </c>
     </row>
     <row r="101">
@@ -1378,7 +1378,7 @@
         <v>43188</v>
       </c>
       <c r="B101" t="n">
-        <v>150404.1630000001</v>
+        <v>-70512.18699999547</v>
       </c>
     </row>
     <row r="102">
@@ -1386,7 +1386,7 @@
         <v>43220</v>
       </c>
       <c r="B102" t="n">
-        <v>149495.8685000001</v>
+        <v>-71242.7814999955</v>
       </c>
     </row>
     <row r="103">
@@ -1394,7 +1394,7 @@
         <v>43251</v>
       </c>
       <c r="B103" t="n">
-        <v>147206.8610000001</v>
+        <v>-71218.78899999548</v>
       </c>
     </row>
     <row r="104">
@@ -1402,7 +1402,7 @@
         <v>43280</v>
       </c>
       <c r="B104" t="n">
-        <v>150499.3610000001</v>
+        <v>-76656.28899999551</v>
       </c>
     </row>
     <row r="105">
@@ -1410,7 +1410,7 @@
         <v>43312</v>
       </c>
       <c r="B105" t="n">
-        <v>159111.8610000001</v>
+        <v>-84475.13899999537</v>
       </c>
     </row>
     <row r="106">
@@ -1418,7 +1418,7 @@
         <v>43343</v>
       </c>
       <c r="B106" t="n">
-        <v>171329.4610000002</v>
+        <v>-76781.38899999508</v>
       </c>
     </row>
     <row r="107">
@@ -1426,7 +1426,7 @@
         <v>43371</v>
       </c>
       <c r="B107" t="n">
-        <v>173794.7785000001</v>
+        <v>-29543.57149999509</v>
       </c>
     </row>
     <row r="108">
@@ -1434,7 +1434,7 @@
         <v>43404</v>
       </c>
       <c r="B108" t="n">
-        <v>170590.0840000001</v>
+        <v>-57631.11599999495</v>
       </c>
     </row>
     <row r="109">
@@ -1442,7 +1442,7 @@
         <v>43434</v>
       </c>
       <c r="B109" t="n">
-        <v>169060.6840000002</v>
+        <v>-77954.86599999496</v>
       </c>
     </row>
     <row r="110">
@@ -1450,7 +1450,7 @@
         <v>43465</v>
       </c>
       <c r="B110" t="n">
-        <v>177192.5385000002</v>
+        <v>13788.23850000518</v>
       </c>
     </row>
     <row r="111">
@@ -1458,7 +1458,7 @@
         <v>43496</v>
       </c>
       <c r="B111" t="n">
-        <v>172339.3940000002</v>
+        <v>-72911.15599999469</v>
       </c>
     </row>
     <row r="112">
@@ -1466,7 +1466,7 @@
         <v>43524</v>
       </c>
       <c r="B112" t="n">
-        <v>170319.3940000002</v>
+        <v>-72179.90599999471</v>
       </c>
     </row>
     <row r="113">
@@ -1474,7 +1474,7 @@
         <v>43553</v>
       </c>
       <c r="B113" t="n">
-        <v>168457.4985000002</v>
+        <v>-73150.55149999473</v>
       </c>
     </row>
     <row r="114">
@@ -1482,7 +1482,7 @@
         <v>43585</v>
       </c>
       <c r="B114" t="n">
-        <v>161859.6660000002</v>
+        <v>-32637.13399999459</v>
       </c>
     </row>
     <row r="115">
@@ -1490,7 +1490,7 @@
         <v>43616</v>
       </c>
       <c r="B115" t="n">
-        <v>168128.5585000002</v>
+        <v>-74173.09149999442</v>
       </c>
     </row>
     <row r="116">
@@ -1498,7 +1498,7 @@
         <v>43644</v>
       </c>
       <c r="B116" t="n">
-        <v>173293.8705000003</v>
+        <v>-83425.2794999943</v>
       </c>
     </row>
     <row r="117">
@@ -1506,7 +1506,7 @@
         <v>43677</v>
       </c>
       <c r="B117" t="n">
-        <v>174289.7130000003</v>
+        <v>-39176.23699999417</v>
       </c>
     </row>
     <row r="118">
@@ -1514,7 +1514,7 @@
         <v>43707</v>
       </c>
       <c r="B118" t="n">
-        <v>204760.2805000003</v>
+        <v>-25086.56949999416</v>
       </c>
     </row>
     <row r="119">
@@ -1522,7 +1522,7 @@
         <v>43738</v>
       </c>
       <c r="B119" t="n">
-        <v>190679.1230000003</v>
+        <v>-31143.77699999414</v>
       </c>
     </row>
     <row r="120">
@@ -1530,7 +1530,7 @@
         <v>43769</v>
       </c>
       <c r="B120" t="n">
-        <v>190679.1230000003</v>
+        <v>-32392.52699999415</v>
       </c>
     </row>
     <row r="121">
@@ -1538,7 +1538,7 @@
         <v>43798</v>
       </c>
       <c r="B121" t="n">
-        <v>190679.1230000003</v>
+        <v>48173.72300000601</v>
       </c>
     </row>
     <row r="122">
@@ -1546,7 +1546,7 @@
         <v>43830</v>
       </c>
       <c r="B122" t="n">
-        <v>191939.6655000002</v>
+        <v>24841.56550000629</v>
       </c>
     </row>
     <row r="123">
@@ -1554,7 +1554,7 @@
         <v>43861</v>
       </c>
       <c r="B123" t="n">
-        <v>189742.9700000002</v>
+        <v>-47352.77999999328</v>
       </c>
     </row>
     <row r="124">
@@ -1562,7 +1562,7 @@
         <v>43889</v>
       </c>
       <c r="B124" t="n">
-        <v>187168.2245000003</v>
+        <v>-24494.67549999282</v>
       </c>
     </row>
     <row r="125">
@@ -1570,7 +1570,7 @@
         <v>43921</v>
       </c>
       <c r="B125" t="n">
-        <v>186639.3245000003</v>
+        <v>337442.1745000071</v>
       </c>
     </row>
     <row r="126">
@@ -1578,7 +1578,7 @@
         <v>43951</v>
       </c>
       <c r="B126" t="n">
-        <v>167029.4245000004</v>
+        <v>251752.1745000073</v>
       </c>
     </row>
     <row r="127">
@@ -1586,7 +1586,7 @@
         <v>43980</v>
       </c>
       <c r="B127" t="n">
-        <v>165977.1245000004</v>
+        <v>251495.9245000073</v>
       </c>
     </row>
     <row r="128">
@@ -1594,7 +1594,7 @@
         <v>44012</v>
       </c>
       <c r="B128" t="n">
-        <v>167703.3855000004</v>
+        <v>259249.6855000073</v>
       </c>
     </row>
     <row r="129">
@@ -1602,7 +1602,7 @@
         <v>44043</v>
       </c>
       <c r="B129" t="n">
-        <v>213964.4475000004</v>
+        <v>273085.5975000073</v>
       </c>
     </row>
     <row r="130">
@@ -1610,7 +1610,7 @@
         <v>44074</v>
       </c>
       <c r="B130" t="n">
-        <v>223571.5150000004</v>
+        <v>396626.5150000075</v>
       </c>
     </row>
     <row r="131">
@@ -1618,7 +1618,7 @@
         <v>44104</v>
       </c>
       <c r="B131" t="n">
-        <v>209238.6150000003</v>
+        <v>261496.5150000074</v>
       </c>
     </row>
     <row r="132">
@@ -1626,7 +1626,7 @@
         <v>44134</v>
       </c>
       <c r="B132" t="n">
-        <v>210303.9650000003</v>
+        <v>261874.6150000074</v>
       </c>
     </row>
     <row r="133">
@@ -1634,7 +1634,7 @@
         <v>44165</v>
       </c>
       <c r="B133" t="n">
-        <v>215873.3980000003</v>
+        <v>307678.0480000075</v>
       </c>
     </row>
     <row r="134">
@@ -1642,7 +1642,7 @@
         <v>44196</v>
       </c>
       <c r="B134" t="n">
-        <v>211502.1480000004</v>
+        <v>337808.0480000078</v>
       </c>
     </row>
     <row r="135">
@@ -1650,7 +1650,7 @@
         <v>44225</v>
       </c>
       <c r="B135" t="n">
-        <v>215445.7330000004</v>
+        <v>334148.683000008</v>
       </c>
     </row>
     <row r="136">
@@ -1658,7 +1658,7 @@
         <v>44253</v>
       </c>
       <c r="B136" t="n">
-        <v>233063.3255000004</v>
+        <v>336038.9755000083</v>
       </c>
     </row>
     <row r="137">
@@ -1666,7 +1666,7 @@
         <v>44286</v>
       </c>
       <c r="B137" t="n">
-        <v>235534.8885000004</v>
+        <v>447018.0385000084</v>
       </c>
     </row>
     <row r="138">
@@ -1674,7 +1674,7 @@
         <v>44316</v>
       </c>
       <c r="B138" t="n">
-        <v>229335.2310000004</v>
+        <v>534444.5810000084</v>
       </c>
     </row>
     <row r="139">
@@ -1682,7 +1682,7 @@
         <v>44344</v>
       </c>
       <c r="B139" t="n">
-        <v>231755.1310000004</v>
+        <v>512564.5810000086</v>
       </c>
     </row>
     <row r="140">
@@ -1690,7 +1690,7 @@
         <v>44377</v>
       </c>
       <c r="B140" t="n">
-        <v>226775.1310000004</v>
+        <v>519875.8310000086</v>
       </c>
     </row>
     <row r="141">
@@ -1698,7 +1698,7 @@
         <v>44407</v>
       </c>
       <c r="B141" t="n">
-        <v>228989.6605000004</v>
+        <v>413379.560500009</v>
       </c>
     </row>
     <row r="142">
@@ -1706,7 +1706,7 @@
         <v>44439</v>
       </c>
       <c r="B142" t="n">
-        <v>211233.7410000005</v>
+        <v>393410.7910000092</v>
       </c>
     </row>
     <row r="143">
@@ -1714,7 +1714,7 @@
         <v>44469</v>
       </c>
       <c r="B143" t="n">
-        <v>215384.6410000004</v>
+        <v>386434.5410000091</v>
       </c>
     </row>
     <row r="144">
@@ -1722,7 +1722,7 @@
         <v>44498</v>
       </c>
       <c r="B144" t="n">
-        <v>208320.2965000005</v>
+        <v>420726.4465000092</v>
       </c>
     </row>
     <row r="145">
@@ -1730,7 +1730,7 @@
         <v>44530</v>
       </c>
       <c r="B145" t="n">
-        <v>198566.0110000005</v>
+        <v>423345.9110000094</v>
       </c>
     </row>
     <row r="146">
@@ -1738,7 +1738,7 @@
         <v>44561</v>
       </c>
       <c r="B146" t="n">
-        <v>188262.9610000005</v>
+        <v>403165.8110000095</v>
       </c>
     </row>
     <row r="147">
@@ -1746,7 +1746,7 @@
         <v>44592</v>
       </c>
       <c r="B147" t="n">
-        <v>193904.4035000005</v>
+        <v>130449.8535000098</v>
       </c>
     </row>
     <row r="148">
@@ -1754,7 +1754,7 @@
         <v>44620</v>
       </c>
       <c r="B148" t="n">
-        <v>188603.4460000005</v>
+        <v>7456.396000010063</v>
       </c>
     </row>
     <row r="149">
@@ -1762,7 +1762,215 @@
         <v>44651</v>
       </c>
       <c r="B149" t="n">
-        <v>200809.3635000006</v>
+        <v>-15597.68649998981</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B150" t="n">
+        <v>-13792.68649998981</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B151" t="n">
+        <v>-71357.68649998952</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B152" t="n">
+        <v>-93632.68649998937</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B153" t="n">
+        <v>-190577.6864999892</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B154" t="n">
+        <v>-190577.6864999892</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B155" t="n">
+        <v>-95327.68649998908</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B156" t="n">
+        <v>-280427.686499989</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="B157" t="n">
+        <v>-254437.6864999888</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="B158" t="n">
+        <v>-496567.6864999884</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B159" t="n">
+        <v>-496567.6864999884</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B160" t="n">
+        <v>-501552.6864999884</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B161" t="n">
+        <v>-574012.6864999882</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B162" t="n">
+        <v>-581542.6864999882</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B163" t="n">
+        <v>-562512.6864999882</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B164" t="n">
+        <v>-545372.6864999882</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B165" t="n">
+        <v>-454272.6864999881</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B166" t="n">
+        <v>-519562.686499988</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B167" t="n">
+        <v>-519562.686499988</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B168" t="n">
+        <v>-620582.6864999876</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B169" t="n">
+        <v>-749022.6864999875</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="B170" t="n">
+        <v>-584482.6864999874</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="B171" t="n">
+        <v>-629422.6864999871</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B172" t="n">
+        <v>-536312.6864999871</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="B173" t="n">
+        <v>-476097.6864999871</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B174" t="n">
+        <v>-597347.686499987</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B175" t="n">
+        <v>-597347.686499987</v>
       </c>
     </row>
   </sheetData>

--- a/TradingSimula_18-2022/TF-Covel_1R.xlsx
+++ b/TradingSimula_18-2022/TF-Covel_1R.xlsx
@@ -158,12 +158,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EquityCurve'!$A$3:$A$174</f>
+              <f>'EquityCurve'!$A$3:$A$148</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EquityCurve'!$B$2:$B$174</f>
+              <f>'EquityCurve'!$B$2:$B$148</f>
             </numRef>
           </val>
         </ser>
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B175"/>
+  <dimension ref="A1:B149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,7 +594,7 @@
         <v>40207</v>
       </c>
       <c r="B3" t="n">
-        <v>-300.0000000000164</v>
+        <v>-12924.2</v>
       </c>
     </row>
     <row r="4">
@@ -602,7 +602,7 @@
         <v>40235</v>
       </c>
       <c r="B4" t="n">
-        <v>5456.249999999975</v>
+        <v>-12924.2</v>
       </c>
     </row>
     <row r="5">
@@ -610,7 +610,7 @@
         <v>40268</v>
       </c>
       <c r="B5" t="n">
-        <v>3462.499999999945</v>
+        <v>-6684.199999999999</v>
       </c>
     </row>
     <row r="6">
@@ -618,7 +618,7 @@
         <v>40298</v>
       </c>
       <c r="B6" t="n">
-        <v>1968.724999999911</v>
+        <v>-13342.79999999998</v>
       </c>
     </row>
     <row r="7">
@@ -626,7 +626,7 @@
         <v>40326</v>
       </c>
       <c r="B7" t="n">
-        <v>13314.97949999987</v>
+        <v>-28663.39999999997</v>
       </c>
     </row>
     <row r="8">
@@ -634,7 +634,7 @@
         <v>40359</v>
       </c>
       <c r="B8" t="n">
-        <v>21930.29249999984</v>
+        <v>-32670.39999999998</v>
       </c>
     </row>
     <row r="9">
@@ -642,7 +642,7 @@
         <v>40389</v>
       </c>
       <c r="B9" t="n">
-        <v>23832.47949999987</v>
+        <v>-32670.39999999998</v>
       </c>
     </row>
     <row r="10">
@@ -650,7 +650,7 @@
         <v>40421</v>
       </c>
       <c r="B10" t="n">
-        <v>36040.94699999985</v>
+        <v>-31300.39999999998</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         <v>40451</v>
       </c>
       <c r="B11" t="n">
-        <v>33629.67749999982</v>
+        <v>-33370.59999999996</v>
       </c>
     </row>
     <row r="12">
@@ -666,7 +666,7 @@
         <v>40480</v>
       </c>
       <c r="B12" t="n">
-        <v>45204.0819999998</v>
+        <v>-34182.39999999996</v>
       </c>
     </row>
     <row r="13">
@@ -674,7 +674,7 @@
         <v>40512</v>
       </c>
       <c r="B13" t="n">
-        <v>33421.95399999977</v>
+        <v>-44605.19999999998</v>
       </c>
     </row>
     <row r="14">
@@ -682,7 +682,7 @@
         <v>40543</v>
       </c>
       <c r="B14" t="n">
-        <v>38816.93349999977</v>
+        <v>-40792.19999999999</v>
       </c>
     </row>
     <row r="15">
@@ -690,7 +690,7 @@
         <v>40574</v>
       </c>
       <c r="B15" t="n">
-        <v>42057.58899999976</v>
+        <v>-41281.39999999997</v>
       </c>
     </row>
     <row r="16">
@@ -698,7 +698,7 @@
         <v>40602</v>
       </c>
       <c r="B16" t="n">
-        <v>38752.59899999975</v>
+        <v>-35327.99999999996</v>
       </c>
     </row>
     <row r="17">
@@ -706,7 +706,7 @@
         <v>40633</v>
       </c>
       <c r="B17" t="n">
-        <v>31240.09899999971</v>
+        <v>-20370.39999999998</v>
       </c>
     </row>
     <row r="18">
@@ -714,7 +714,7 @@
         <v>40662</v>
       </c>
       <c r="B18" t="n">
-        <v>39010.09899999968</v>
+        <v>-7479.199999999966</v>
       </c>
     </row>
     <row r="19">
@@ -722,7 +722,7 @@
         <v>40694</v>
       </c>
       <c r="B19" t="n">
-        <v>32624.76649999969</v>
+        <v>-21352.19999999995</v>
       </c>
     </row>
     <row r="20">
@@ -730,7 +730,7 @@
         <v>40724</v>
       </c>
       <c r="B20" t="n">
-        <v>28850.68399999968</v>
+        <v>-40030.59999999995</v>
       </c>
     </row>
     <row r="21">
@@ -738,7 +738,7 @@
         <v>40753</v>
       </c>
       <c r="B21" t="n">
-        <v>31775.97649999967</v>
+        <v>-45653.79999999995</v>
       </c>
     </row>
     <row r="22">
@@ -746,7 +746,7 @@
         <v>40786</v>
       </c>
       <c r="B22" t="n">
-        <v>41615.97649999963</v>
+        <v>-56032.99999999998</v>
       </c>
     </row>
     <row r="23">
@@ -754,7 +754,7 @@
         <v>40816</v>
       </c>
       <c r="B23" t="n">
-        <v>52991.6069999996</v>
+        <v>-54452.99999999997</v>
       </c>
     </row>
     <row r="24">
@@ -762,7 +762,7 @@
         <v>40847</v>
       </c>
       <c r="B24" t="n">
-        <v>36266.58199999956</v>
+        <v>-74304.39999999999</v>
       </c>
     </row>
     <row r="25">
@@ -770,7 +770,7 @@
         <v>40877</v>
       </c>
       <c r="B25" t="n">
-        <v>36266.58199999956</v>
+        <v>-72814.39999999998</v>
       </c>
     </row>
     <row r="26">
@@ -778,7 +778,7 @@
         <v>40907</v>
       </c>
       <c r="B26" t="n">
-        <v>38036.61699999953</v>
+        <v>-72204.39999999999</v>
       </c>
     </row>
     <row r="27">
@@ -786,7 +786,7 @@
         <v>40939</v>
       </c>
       <c r="B27" t="n">
-        <v>38992.2964999995</v>
+        <v>-72254.39999999998</v>
       </c>
     </row>
     <row r="28">
@@ -794,7 +794,7 @@
         <v>40968</v>
       </c>
       <c r="B28" t="n">
-        <v>45953.88899999947</v>
+        <v>-71359.59999999996</v>
       </c>
     </row>
     <row r="29">
@@ -802,7 +802,7 @@
         <v>40998</v>
       </c>
       <c r="B29" t="n">
-        <v>51239.80649999946</v>
+        <v>-71669.59999999998</v>
       </c>
     </row>
     <row r="30">
@@ -810,7 +810,7 @@
         <v>41029</v>
       </c>
       <c r="B30" t="n">
-        <v>48319.81099999943</v>
+        <v>-71679.59999999998</v>
       </c>
     </row>
     <row r="31">
@@ -818,7 +818,7 @@
         <v>41060</v>
       </c>
       <c r="B31" t="n">
-        <v>60673.51549999943</v>
+        <v>-51087.39999999999</v>
       </c>
     </row>
     <row r="32">
@@ -826,7 +826,7 @@
         <v>41089</v>
       </c>
       <c r="B32" t="n">
-        <v>48858.52099999942</v>
+        <v>-48221.40000000001</v>
       </c>
     </row>
     <row r="33">
@@ -834,7 +834,7 @@
         <v>41121</v>
       </c>
       <c r="B33" t="n">
-        <v>51261.3179999994</v>
+        <v>-46691.4</v>
       </c>
     </row>
     <row r="34">
@@ -842,7 +842,7 @@
         <v>41152</v>
       </c>
       <c r="B34" t="n">
-        <v>51649.4484999994</v>
+        <v>-50781.40000000001</v>
       </c>
     </row>
     <row r="35">
@@ -850,7 +850,7 @@
         <v>41180</v>
       </c>
       <c r="B35" t="n">
-        <v>46152.58349999938</v>
+        <v>-60110.80000000005</v>
       </c>
     </row>
     <row r="36">
@@ -858,7 +858,7 @@
         <v>41213</v>
       </c>
       <c r="B36" t="n">
-        <v>44671.96299999937</v>
+        <v>-69694.20000000004</v>
       </c>
     </row>
     <row r="37">
@@ -866,7 +866,7 @@
         <v>41243</v>
       </c>
       <c r="B37" t="n">
-        <v>42559.46749999933</v>
+        <v>-74594.20000000007</v>
       </c>
     </row>
     <row r="38">
@@ -874,7 +874,7 @@
         <v>41274</v>
       </c>
       <c r="B38" t="n">
-        <v>48302.33499999929</v>
+        <v>-82315.60000000009</v>
       </c>
     </row>
     <row r="39">
@@ -882,7 +882,7 @@
         <v>41305</v>
       </c>
       <c r="B39" t="n">
-        <v>55677.99049999926</v>
+        <v>-83125.60000000009</v>
       </c>
     </row>
     <row r="40">
@@ -890,7 +890,7 @@
         <v>41333</v>
       </c>
       <c r="B40" t="n">
-        <v>54930.7829999992</v>
+        <v>-90212.60000000012</v>
       </c>
     </row>
     <row r="41">
@@ -898,7 +898,7 @@
         <v>41362</v>
       </c>
       <c r="B41" t="n">
-        <v>53294.43299999918</v>
+        <v>-93358.40000000014</v>
       </c>
     </row>
     <row r="42">
@@ -906,7 +906,7 @@
         <v>41394</v>
       </c>
       <c r="B42" t="n">
-        <v>45775.35049999914</v>
+        <v>-95666.00000000013</v>
       </c>
     </row>
     <row r="43">
@@ -914,7 +914,7 @@
         <v>41425</v>
       </c>
       <c r="B43" t="n">
-        <v>51039.34849999911</v>
+        <v>-101420.0000000001</v>
       </c>
     </row>
     <row r="44">
@@ -922,7 +922,7 @@
         <v>41453</v>
       </c>
       <c r="B44" t="n">
-        <v>58074.6854999991</v>
+        <v>-101420.0000000001</v>
       </c>
     </row>
     <row r="45">
@@ -930,7 +930,7 @@
         <v>41486</v>
       </c>
       <c r="B45" t="n">
-        <v>56721.9029999991</v>
+        <v>-99588.40000000015</v>
       </c>
     </row>
     <row r="46">
@@ -938,7 +938,7 @@
         <v>41516</v>
       </c>
       <c r="B46" t="n">
-        <v>51978.18249999906</v>
+        <v>-101084.0000000002</v>
       </c>
     </row>
     <row r="47">
@@ -946,7 +946,7 @@
         <v>41547</v>
       </c>
       <c r="B47" t="n">
-        <v>54689.72499999904</v>
+        <v>-106937.2000000002</v>
       </c>
     </row>
     <row r="48">
@@ -954,7 +954,7 @@
         <v>41578</v>
       </c>
       <c r="B48" t="n">
-        <v>54514.12949999898</v>
+        <v>-106937.2000000002</v>
       </c>
     </row>
     <row r="49">
@@ -962,7 +962,7 @@
         <v>41607</v>
       </c>
       <c r="B49" t="n">
-        <v>57759.78499999896</v>
+        <v>-108600.2000000002</v>
       </c>
     </row>
     <row r="50">
@@ -970,7 +970,7 @@
         <v>41639</v>
       </c>
       <c r="B50" t="n">
-        <v>62363.53499999894</v>
+        <v>-110170.2000000002</v>
       </c>
     </row>
     <row r="51">
@@ -978,7 +978,7 @@
         <v>41670</v>
       </c>
       <c r="B51" t="n">
-        <v>51424.78499999893</v>
+        <v>-107539.0000000002</v>
       </c>
     </row>
     <row r="52">
@@ -986,7 +986,7 @@
         <v>41698</v>
       </c>
       <c r="B52" t="n">
-        <v>53194.73499999894</v>
+        <v>-98051.00000000026</v>
       </c>
     </row>
     <row r="53">
@@ -994,7 +994,7 @@
         <v>41729</v>
       </c>
       <c r="B53" t="n">
-        <v>45866.51999999891</v>
+        <v>-105294.4000000003</v>
       </c>
     </row>
     <row r="54">
@@ -1002,7 +1002,7 @@
         <v>41759</v>
       </c>
       <c r="B54" t="n">
-        <v>40283.9199999989</v>
+        <v>-108454.4000000003</v>
       </c>
     </row>
     <row r="55">
@@ -1010,7 +1010,7 @@
         <v>41789</v>
       </c>
       <c r="B55" t="n">
-        <v>17674.88749999902</v>
+        <v>-109444.4000000003</v>
       </c>
     </row>
     <row r="56">
@@ -1018,7 +1018,7 @@
         <v>41820</v>
       </c>
       <c r="B56" t="n">
-        <v>17915.179999999</v>
+        <v>-106294.4000000003</v>
       </c>
     </row>
     <row r="57">
@@ -1026,7 +1026,7 @@
         <v>41851</v>
       </c>
       <c r="B57" t="n">
-        <v>16968.82999999898</v>
+        <v>-105530.8000000003</v>
       </c>
     </row>
     <row r="58">
@@ -1034,7 +1034,7 @@
         <v>41880</v>
       </c>
       <c r="B58" t="n">
-        <v>-32634.00250000093</v>
+        <v>-109036.2000000003</v>
       </c>
     </row>
     <row r="59">
@@ -1042,7 +1042,7 @@
         <v>41912</v>
       </c>
       <c r="B59" t="n">
-        <v>-37799.33050000078</v>
+        <v>-105613.2000000003</v>
       </c>
     </row>
     <row r="60">
@@ -1050,7 +1050,7 @@
         <v>41943</v>
       </c>
       <c r="B60" t="n">
-        <v>-138989.9900000004</v>
+        <v>-92153.00000000032</v>
       </c>
     </row>
     <row r="61">
@@ -1058,7 +1058,7 @@
         <v>41971</v>
       </c>
       <c r="B61" t="n">
-        <v>-72872.4900000004</v>
+        <v>-72846.00000000035</v>
       </c>
     </row>
     <row r="62">
@@ -1066,7 +1066,7 @@
         <v>42004</v>
       </c>
       <c r="B62" t="n">
-        <v>-119608.7400000002</v>
+        <v>-37801.80000000032</v>
       </c>
     </row>
     <row r="63">
@@ -1074,7 +1074,7 @@
         <v>42034</v>
       </c>
       <c r="B63" t="n">
-        <v>-161305.6345</v>
+        <v>-30488.80000000033</v>
       </c>
     </row>
     <row r="64">
@@ -1082,7 +1082,7 @@
         <v>42062</v>
       </c>
       <c r="B64" t="n">
-        <v>-158238.1549999998</v>
+        <v>-36068.80000000034</v>
       </c>
     </row>
     <row r="65">
@@ -1090,7 +1090,7 @@
         <v>42094</v>
       </c>
       <c r="B65" t="n">
-        <v>-187401.9049999997</v>
+        <v>-37428.80000000035</v>
       </c>
     </row>
     <row r="66">
@@ -1098,7 +1098,7 @@
         <v>42124</v>
       </c>
       <c r="B66" t="n">
-        <v>-192044.7079999997</v>
+        <v>-43218.80000000036</v>
       </c>
     </row>
     <row r="67">
@@ -1106,7 +1106,7 @@
         <v>42153</v>
       </c>
       <c r="B67" t="n">
-        <v>-215526.0579999995</v>
+        <v>-46238.80000000037</v>
       </c>
     </row>
     <row r="68">
@@ -1114,7 +1114,7 @@
         <v>42185</v>
       </c>
       <c r="B68" t="n">
-        <v>-229602.3079999994</v>
+        <v>-46238.80000000037</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         <v>42216</v>
       </c>
       <c r="B69" t="n">
-        <v>-320148.6079999989</v>
+        <v>-41625.20000000036</v>
       </c>
     </row>
     <row r="70">
@@ -1130,7 +1130,7 @@
         <v>42247</v>
       </c>
       <c r="B70" t="n">
-        <v>-217013.8904999989</v>
+        <v>-40455.80000000037</v>
       </c>
     </row>
     <row r="71">
@@ -1138,7 +1138,7 @@
         <v>42277</v>
       </c>
       <c r="B71" t="n">
-        <v>-238428.5479999988</v>
+        <v>-39025.80000000037</v>
       </c>
     </row>
     <row r="72">
@@ -1146,7 +1146,7 @@
         <v>42307</v>
       </c>
       <c r="B72" t="n">
-        <v>-242920.3629999988</v>
+        <v>-37485.20000000036</v>
       </c>
     </row>
     <row r="73">
@@ -1154,7 +1154,7 @@
         <v>42338</v>
       </c>
       <c r="B73" t="n">
-        <v>-240454.1129999988</v>
+        <v>-34532.40000000037</v>
       </c>
     </row>
     <row r="74">
@@ -1162,7 +1162,7 @@
         <v>42369</v>
       </c>
       <c r="B74" t="n">
-        <v>-249897.8629999988</v>
+        <v>-18643.40000000038</v>
       </c>
     </row>
     <row r="75">
@@ -1170,7 +1170,7 @@
         <v>42398</v>
       </c>
       <c r="B75" t="n">
-        <v>-318082.8879999989</v>
+        <v>-12636.40000000037</v>
       </c>
     </row>
     <row r="76">
@@ -1178,7 +1178,7 @@
         <v>42429</v>
       </c>
       <c r="B76" t="n">
-        <v>-315626.6334999987</v>
+        <v>-10346.40000000037</v>
       </c>
     </row>
     <row r="77">
@@ -1186,7 +1186,7 @@
         <v>42460</v>
       </c>
       <c r="B77" t="n">
-        <v>-320908.8409999987</v>
+        <v>-11836.40000000037</v>
       </c>
     </row>
     <row r="78">
@@ -1194,7 +1194,7 @@
         <v>42489</v>
       </c>
       <c r="B78" t="n">
-        <v>-325456.3409999987</v>
+        <v>-7926.400000000373</v>
       </c>
     </row>
     <row r="79">
@@ -1202,7 +1202,7 @@
         <v>42521</v>
       </c>
       <c r="B79" t="n">
-        <v>-344247.5909999985</v>
+        <v>-6757.800000000374</v>
       </c>
     </row>
     <row r="80">
@@ -1210,7 +1210,7 @@
         <v>42551</v>
       </c>
       <c r="B80" t="n">
-        <v>-466850.3984999981</v>
+        <v>-6359.80000000037</v>
       </c>
     </row>
     <row r="81">
@@ -1218,7 +1218,7 @@
         <v>42580</v>
       </c>
       <c r="B81" t="n">
-        <v>-434423.8309999979</v>
+        <v>-8919.800000000372</v>
       </c>
     </row>
     <row r="82">
@@ -1226,7 +1226,7 @@
         <v>42613</v>
       </c>
       <c r="B82" t="n">
-        <v>-459236.3309999975</v>
+        <v>-8919.800000000372</v>
       </c>
     </row>
     <row r="83">
@@ -1234,7 +1234,7 @@
         <v>42643</v>
       </c>
       <c r="B83" t="n">
-        <v>-460291.3309999975</v>
+        <v>-10469.80000000037</v>
       </c>
     </row>
     <row r="84">
@@ -1242,7 +1242,7 @@
         <v>42674</v>
       </c>
       <c r="B84" t="n">
-        <v>-459463.8514999975</v>
+        <v>-13299.80000000039</v>
       </c>
     </row>
     <row r="85">
@@ -1250,7 +1250,7 @@
         <v>42704</v>
       </c>
       <c r="B85" t="n">
-        <v>-588550.0414999969</v>
+        <v>-12019.80000000039</v>
       </c>
     </row>
     <row r="86">
@@ -1258,7 +1258,7 @@
         <v>42734</v>
       </c>
       <c r="B86" t="n">
-        <v>-524448.5294999968</v>
+        <v>-11556.80000000038</v>
       </c>
     </row>
     <row r="87">
@@ -1266,7 +1266,7 @@
         <v>42766</v>
       </c>
       <c r="B87" t="n">
-        <v>-540735.3739999967</v>
+        <v>-21493.00000000038</v>
       </c>
     </row>
     <row r="88">
@@ -1274,7 +1274,7 @@
         <v>42794</v>
       </c>
       <c r="B88" t="n">
-        <v>-430432.8739999967</v>
+        <v>-21143.00000000039</v>
       </c>
     </row>
     <row r="89">
@@ -1282,7 +1282,7 @@
         <v>42825</v>
       </c>
       <c r="B89" t="n">
-        <v>-437047.9739999966</v>
+        <v>-23313.00000000039</v>
       </c>
     </row>
     <row r="90">
@@ -1290,7 +1290,7 @@
         <v>42853</v>
       </c>
       <c r="B90" t="n">
-        <v>-434096.4314999965</v>
+        <v>-23313.00000000039</v>
       </c>
     </row>
     <row r="91">
@@ -1298,7 +1298,7 @@
         <v>42886</v>
       </c>
       <c r="B91" t="n">
-        <v>-432836.1094999965</v>
+        <v>-27912.80000000038</v>
       </c>
     </row>
     <row r="92">
@@ -1306,7 +1306,7 @@
         <v>42916</v>
       </c>
       <c r="B92" t="n">
-        <v>-429386.1289999963</v>
+        <v>-35099.20000000039</v>
       </c>
     </row>
     <row r="93">
@@ -1314,7 +1314,7 @@
         <v>42947</v>
       </c>
       <c r="B93" t="n">
-        <v>-388769.9289999962</v>
+        <v>-37859.2000000004</v>
       </c>
     </row>
     <row r="94">
@@ -1322,7 +1322,7 @@
         <v>42978</v>
       </c>
       <c r="B94" t="n">
-        <v>-405024.011499996</v>
+        <v>-37040.4000000004</v>
       </c>
     </row>
     <row r="95">
@@ -1330,7 +1330,7 @@
         <v>43007</v>
       </c>
       <c r="B95" t="n">
-        <v>-383615.9069999958</v>
+        <v>-33890.40000000039</v>
       </c>
     </row>
     <row r="96">
@@ -1338,7 +1338,7 @@
         <v>43039</v>
       </c>
       <c r="B96" t="n">
-        <v>-282194.3144999958</v>
+        <v>-32914.2000000004</v>
       </c>
     </row>
     <row r="97">
@@ -1346,7 +1346,7 @@
         <v>43069</v>
       </c>
       <c r="B97" t="n">
-        <v>-211866.8144999956</v>
+        <v>-33109.40000000041</v>
       </c>
     </row>
     <row r="98">
@@ -1354,7 +1354,7 @@
         <v>43098</v>
       </c>
       <c r="B98" t="n">
-        <v>-165204.6264999956</v>
+        <v>-24408.80000000041</v>
       </c>
     </row>
     <row r="99">
@@ -1362,7 +1362,7 @@
         <v>43131</v>
       </c>
       <c r="B99" t="n">
-        <v>4142.198500004422</v>
+        <v>-23305.20000000042</v>
       </c>
     </row>
     <row r="100">
@@ -1370,7 +1370,7 @@
         <v>43159</v>
       </c>
       <c r="B100" t="n">
-        <v>-62459.35449999548</v>
+        <v>-29900.60000000041</v>
       </c>
     </row>
     <row r="101">
@@ -1378,7 +1378,7 @@
         <v>43188</v>
       </c>
       <c r="B101" t="n">
-        <v>-70512.18699999547</v>
+        <v>-29900.60000000041</v>
       </c>
     </row>
     <row r="102">
@@ -1386,7 +1386,7 @@
         <v>43220</v>
       </c>
       <c r="B102" t="n">
-        <v>-71242.7814999955</v>
+        <v>-27002.80000000041</v>
       </c>
     </row>
     <row r="103">
@@ -1394,7 +1394,7 @@
         <v>43251</v>
       </c>
       <c r="B103" t="n">
-        <v>-71218.78899999548</v>
+        <v>-26596.20000000042</v>
       </c>
     </row>
     <row r="104">
@@ -1402,7 +1402,7 @@
         <v>43280</v>
       </c>
       <c r="B104" t="n">
-        <v>-76656.28899999551</v>
+        <v>-25916.20000000043</v>
       </c>
     </row>
     <row r="105">
@@ -1410,7 +1410,7 @@
         <v>43312</v>
       </c>
       <c r="B105" t="n">
-        <v>-84475.13899999537</v>
+        <v>-32736.20000000043</v>
       </c>
     </row>
     <row r="106">
@@ -1418,7 +1418,7 @@
         <v>43343</v>
       </c>
       <c r="B106" t="n">
-        <v>-76781.38899999508</v>
+        <v>-32736.20000000043</v>
       </c>
     </row>
     <row r="107">
@@ -1426,7 +1426,7 @@
         <v>43371</v>
       </c>
       <c r="B107" t="n">
-        <v>-29543.57149999509</v>
+        <v>-31838.80000000045</v>
       </c>
     </row>
     <row r="108">
@@ -1434,7 +1434,7 @@
         <v>43404</v>
       </c>
       <c r="B108" t="n">
-        <v>-57631.11599999495</v>
+        <v>-35177.40000000048</v>
       </c>
     </row>
     <row r="109">
@@ -1442,7 +1442,7 @@
         <v>43434</v>
       </c>
       <c r="B109" t="n">
-        <v>-77954.86599999496</v>
+        <v>-2051.400000000489</v>
       </c>
     </row>
     <row r="110">
@@ -1450,7 +1450,7 @@
         <v>43465</v>
       </c>
       <c r="B110" t="n">
-        <v>13788.23850000518</v>
+        <v>4173.399999999508</v>
       </c>
     </row>
     <row r="111">
@@ -1458,7 +1458,7 @@
         <v>43496</v>
       </c>
       <c r="B111" t="n">
-        <v>-72911.15599999469</v>
+        <v>-6425.000000000484</v>
       </c>
     </row>
     <row r="112">
@@ -1466,7 +1466,7 @@
         <v>43524</v>
       </c>
       <c r="B112" t="n">
-        <v>-72179.90599999471</v>
+        <v>-6115.000000000487</v>
       </c>
     </row>
     <row r="113">
@@ -1474,7 +1474,7 @@
         <v>43553</v>
       </c>
       <c r="B113" t="n">
-        <v>-73150.55149999473</v>
+        <v>-6375.000000000486</v>
       </c>
     </row>
     <row r="114">
@@ -1482,7 +1482,7 @@
         <v>43585</v>
       </c>
       <c r="B114" t="n">
-        <v>-32637.13399999459</v>
+        <v>-3472.800000000499</v>
       </c>
     </row>
     <row r="115">
@@ -1490,7 +1490,7 @@
         <v>43616</v>
       </c>
       <c r="B115" t="n">
-        <v>-74173.09149999442</v>
+        <v>-8384.600000000493</v>
       </c>
     </row>
     <row r="116">
@@ -1498,7 +1498,7 @@
         <v>43644</v>
       </c>
       <c r="B116" t="n">
-        <v>-83425.2794999943</v>
+        <v>-10410.80000000049</v>
       </c>
     </row>
     <row r="117">
@@ -1506,7 +1506,7 @@
         <v>43677</v>
       </c>
       <c r="B117" t="n">
-        <v>-39176.23699999417</v>
+        <v>-12450.8000000005</v>
       </c>
     </row>
     <row r="118">
@@ -1514,7 +1514,7 @@
         <v>43707</v>
       </c>
       <c r="B118" t="n">
-        <v>-25086.56949999416</v>
+        <v>-20076.20000000049</v>
       </c>
     </row>
     <row r="119">
@@ -1522,7 +1522,7 @@
         <v>43738</v>
       </c>
       <c r="B119" t="n">
-        <v>-31143.77699999414</v>
+        <v>-26662.0000000005</v>
       </c>
     </row>
     <row r="120">
@@ -1530,7 +1530,7 @@
         <v>43769</v>
       </c>
       <c r="B120" t="n">
-        <v>-32392.52699999415</v>
+        <v>-26662.0000000005</v>
       </c>
     </row>
     <row r="121">
@@ -1538,7 +1538,7 @@
         <v>43798</v>
       </c>
       <c r="B121" t="n">
-        <v>48173.72300000601</v>
+        <v>-29852.00000000051</v>
       </c>
     </row>
     <row r="122">
@@ -1546,7 +1546,7 @@
         <v>43830</v>
       </c>
       <c r="B122" t="n">
-        <v>24841.56550000629</v>
+        <v>-29492.0000000005</v>
       </c>
     </row>
     <row r="123">
@@ -1554,7 +1554,7 @@
         <v>43861</v>
       </c>
       <c r="B123" t="n">
-        <v>-47352.77999999328</v>
+        <v>-25466.4000000005</v>
       </c>
     </row>
     <row r="124">
@@ -1562,7 +1562,7 @@
         <v>43889</v>
       </c>
       <c r="B124" t="n">
-        <v>-24494.67549999282</v>
+        <v>-22021.6000000005</v>
       </c>
     </row>
     <row r="125">
@@ -1570,7 +1570,7 @@
         <v>43921</v>
       </c>
       <c r="B125" t="n">
-        <v>337442.1745000071</v>
+        <v>20360.3999999995</v>
       </c>
     </row>
     <row r="126">
@@ -1578,7 +1578,7 @@
         <v>43951</v>
       </c>
       <c r="B126" t="n">
-        <v>251752.1745000073</v>
+        <v>37217.5999999995</v>
       </c>
     </row>
     <row r="127">
@@ -1586,7 +1586,7 @@
         <v>43980</v>
       </c>
       <c r="B127" t="n">
-        <v>251495.9245000073</v>
+        <v>25717.7999999995</v>
       </c>
     </row>
     <row r="128">
@@ -1594,7 +1594,7 @@
         <v>44012</v>
       </c>
       <c r="B128" t="n">
-        <v>259249.6855000073</v>
+        <v>27237.7999999995</v>
       </c>
     </row>
     <row r="129">
@@ -1602,7 +1602,7 @@
         <v>44043</v>
       </c>
       <c r="B129" t="n">
-        <v>273085.5975000073</v>
+        <v>24317.79999999951</v>
       </c>
     </row>
     <row r="130">
@@ -1610,7 +1610,7 @@
         <v>44074</v>
       </c>
       <c r="B130" t="n">
-        <v>396626.5150000075</v>
+        <v>21811.5999999995</v>
       </c>
     </row>
     <row r="131">
@@ -1618,7 +1618,7 @@
         <v>44104</v>
       </c>
       <c r="B131" t="n">
-        <v>261496.5150000074</v>
+        <v>18171.5999999995</v>
       </c>
     </row>
     <row r="132">
@@ -1626,7 +1626,7 @@
         <v>44134</v>
       </c>
       <c r="B132" t="n">
-        <v>261874.6150000074</v>
+        <v>18313.39999999951</v>
       </c>
     </row>
     <row r="133">
@@ -1634,7 +1634,7 @@
         <v>44165</v>
       </c>
       <c r="B133" t="n">
-        <v>307678.0480000075</v>
+        <v>9669.999999999507</v>
       </c>
     </row>
     <row r="134">
@@ -1642,7 +1642,7 @@
         <v>44196</v>
       </c>
       <c r="B134" t="n">
-        <v>337808.0480000078</v>
+        <v>16295.5999999995</v>
       </c>
     </row>
     <row r="135">
@@ -1650,7 +1650,7 @@
         <v>44225</v>
       </c>
       <c r="B135" t="n">
-        <v>334148.683000008</v>
+        <v>22250.39999999951</v>
       </c>
     </row>
     <row r="136">
@@ -1658,7 +1658,7 @@
         <v>44253</v>
       </c>
       <c r="B136" t="n">
-        <v>336038.9755000083</v>
+        <v>42105.99999999951</v>
       </c>
     </row>
     <row r="137">
@@ -1666,7 +1666,7 @@
         <v>44286</v>
       </c>
       <c r="B137" t="n">
-        <v>447018.0385000084</v>
+        <v>37525.99999999951</v>
       </c>
     </row>
     <row r="138">
@@ -1674,7 +1674,7 @@
         <v>44316</v>
       </c>
       <c r="B138" t="n">
-        <v>534444.5810000084</v>
+        <v>37525.99999999951</v>
       </c>
     </row>
     <row r="139">
@@ -1682,7 +1682,7 @@
         <v>44344</v>
       </c>
       <c r="B139" t="n">
-        <v>512564.5810000086</v>
+        <v>35934.1999999995</v>
       </c>
     </row>
     <row r="140">
@@ -1690,7 +1690,7 @@
         <v>44377</v>
       </c>
       <c r="B140" t="n">
-        <v>519875.8310000086</v>
+        <v>45427.19999999952</v>
       </c>
     </row>
     <row r="141">
@@ -1698,7 +1698,7 @@
         <v>44407</v>
       </c>
       <c r="B141" t="n">
-        <v>413379.560500009</v>
+        <v>42276.3999999995</v>
       </c>
     </row>
     <row r="142">
@@ -1706,7 +1706,7 @@
         <v>44439</v>
       </c>
       <c r="B142" t="n">
-        <v>393410.7910000092</v>
+        <v>43006.39999999949</v>
       </c>
     </row>
     <row r="143">
@@ -1714,7 +1714,7 @@
         <v>44469</v>
       </c>
       <c r="B143" t="n">
-        <v>386434.5410000091</v>
+        <v>61563.59999999948</v>
       </c>
     </row>
     <row r="144">
@@ -1722,7 +1722,7 @@
         <v>44498</v>
       </c>
       <c r="B144" t="n">
-        <v>420726.4465000092</v>
+        <v>69352.99999999948</v>
       </c>
     </row>
     <row r="145">
@@ -1730,7 +1730,7 @@
         <v>44530</v>
       </c>
       <c r="B145" t="n">
-        <v>423345.9110000094</v>
+        <v>66352.99999999946</v>
       </c>
     </row>
     <row r="146">
@@ -1738,7 +1738,7 @@
         <v>44561</v>
       </c>
       <c r="B146" t="n">
-        <v>403165.8110000095</v>
+        <v>66222.99999999945</v>
       </c>
     </row>
     <row r="147">
@@ -1746,7 +1746,7 @@
         <v>44592</v>
       </c>
       <c r="B147" t="n">
-        <v>130449.8535000098</v>
+        <v>78367.99999999942</v>
       </c>
     </row>
     <row r="148">
@@ -1754,7 +1754,7 @@
         <v>44620</v>
       </c>
       <c r="B148" t="n">
-        <v>7456.396000010063</v>
+        <v>98326.79999999944</v>
       </c>
     </row>
     <row r="149">
@@ -1762,215 +1762,7 @@
         <v>44651</v>
       </c>
       <c r="B149" t="n">
-        <v>-15597.68649998981</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="2" t="n">
-        <v>44680</v>
-      </c>
-      <c r="B150" t="n">
-        <v>-13792.68649998981</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="2" t="n">
-        <v>44712</v>
-      </c>
-      <c r="B151" t="n">
-        <v>-71357.68649998952</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="n">
-        <v>44742</v>
-      </c>
-      <c r="B152" t="n">
-        <v>-93632.68649998937</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="2" t="n">
-        <v>44771</v>
-      </c>
-      <c r="B153" t="n">
-        <v>-190577.6864999892</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="2" t="n">
-        <v>44804</v>
-      </c>
-      <c r="B154" t="n">
-        <v>-190577.6864999892</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="2" t="n">
-        <v>44834</v>
-      </c>
-      <c r="B155" t="n">
-        <v>-95327.68649998908</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="2" t="n">
-        <v>44865</v>
-      </c>
-      <c r="B156" t="n">
-        <v>-280427.686499989</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
-        <v>44895</v>
-      </c>
-      <c r="B157" t="n">
-        <v>-254437.6864999888</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="2" t="n">
-        <v>44925</v>
-      </c>
-      <c r="B158" t="n">
-        <v>-496567.6864999884</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="2" t="n">
-        <v>44957</v>
-      </c>
-      <c r="B159" t="n">
-        <v>-496567.6864999884</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="2" t="n">
-        <v>44985</v>
-      </c>
-      <c r="B160" t="n">
-        <v>-501552.6864999884</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
-        <v>45016</v>
-      </c>
-      <c r="B161" t="n">
-        <v>-574012.6864999882</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
-        <v>45044</v>
-      </c>
-      <c r="B162" t="n">
-        <v>-581542.6864999882</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="2" t="n">
-        <v>45077</v>
-      </c>
-      <c r="B163" t="n">
-        <v>-562512.6864999882</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="2" t="n">
-        <v>45107</v>
-      </c>
-      <c r="B164" t="n">
-        <v>-545372.6864999882</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="2" t="n">
-        <v>45138</v>
-      </c>
-      <c r="B165" t="n">
-        <v>-454272.6864999881</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="2" t="n">
-        <v>45169</v>
-      </c>
-      <c r="B166" t="n">
-        <v>-519562.686499988</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="2" t="n">
-        <v>45198</v>
-      </c>
-      <c r="B167" t="n">
-        <v>-519562.686499988</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="2" t="n">
-        <v>45230</v>
-      </c>
-      <c r="B168" t="n">
-        <v>-620582.6864999876</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="2" t="n">
-        <v>45260</v>
-      </c>
-      <c r="B169" t="n">
-        <v>-749022.6864999875</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="2" t="n">
-        <v>45289</v>
-      </c>
-      <c r="B170" t="n">
-        <v>-584482.6864999874</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
-        <v>45322</v>
-      </c>
-      <c r="B171" t="n">
-        <v>-629422.6864999871</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="2" t="n">
-        <v>45351</v>
-      </c>
-      <c r="B172" t="n">
-        <v>-536312.6864999871</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="2" t="n">
-        <v>45379</v>
-      </c>
-      <c r="B173" t="n">
-        <v>-476097.6864999871</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="2" t="n">
-        <v>45412</v>
-      </c>
-      <c r="B174" t="n">
-        <v>-597347.686499987</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="2" t="n">
-        <v>45415</v>
-      </c>
-      <c r="B175" t="n">
-        <v>-597347.686499987</v>
+        <v>136908.3999999994</v>
       </c>
     </row>
   </sheetData>

--- a/TradingSimula_18-2022/TF-Covel_1R.xlsx
+++ b/TradingSimula_18-2022/TF-Covel_1R.xlsx
@@ -158,12 +158,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EquityCurve'!$A$3:$A$148</f>
+              <f>'EquityCurve'!$A$3:$A$296</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EquityCurve'!$B$2:$B$148</f>
+              <f>'EquityCurve'!$B$2:$B$296</f>
             </numRef>
           </val>
         </ser>
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B149"/>
+  <dimension ref="A1:B297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,1178 +591,2362 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40207</v>
+        <v>36556</v>
       </c>
       <c r="B3" t="n">
-        <v>-12924.2</v>
+        <v>3431.249999999997</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>40235</v>
+        <v>36585</v>
       </c>
       <c r="B4" t="n">
-        <v>-12924.2</v>
+        <v>2131.250000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>40268</v>
+        <v>36616</v>
       </c>
       <c r="B5" t="n">
-        <v>-6684.199999999999</v>
+        <v>-2475.000000000005</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>40298</v>
+        <v>36644</v>
       </c>
       <c r="B6" t="n">
-        <v>-13342.79999999998</v>
+        <v>2062.499999999995</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>40326</v>
+        <v>36677</v>
       </c>
       <c r="B7" t="n">
-        <v>-28663.39999999997</v>
+        <v>4231.249999999992</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>40359</v>
+        <v>36707</v>
       </c>
       <c r="B8" t="n">
-        <v>-32670.39999999998</v>
+        <v>3237.49999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>40389</v>
+        <v>36738</v>
       </c>
       <c r="B9" t="n">
-        <v>-32670.39999999998</v>
+        <v>3237.49999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>40421</v>
+        <v>36769</v>
       </c>
       <c r="B10" t="n">
-        <v>-31300.39999999998</v>
+        <v>3924.999999999998</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>40451</v>
+        <v>36798</v>
       </c>
       <c r="B11" t="n">
-        <v>-33370.59999999996</v>
+        <v>950.0000000000067</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>40480</v>
+        <v>36830</v>
       </c>
       <c r="B12" t="n">
-        <v>-34182.39999999996</v>
+        <v>568.7500000000072</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>40512</v>
+        <v>36860</v>
       </c>
       <c r="B13" t="n">
-        <v>-44605.19999999998</v>
+        <v>131.2500000000139</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>40543</v>
+        <v>36889</v>
       </c>
       <c r="B14" t="n">
-        <v>-40792.19999999999</v>
+        <v>5818.749999999998</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>40574</v>
+        <v>36922</v>
       </c>
       <c r="B15" t="n">
-        <v>-41281.39999999997</v>
+        <v>5068.750000000011</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>40602</v>
+        <v>36950</v>
       </c>
       <c r="B16" t="n">
-        <v>-35327.99999999996</v>
+        <v>4275.000000000015</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>40633</v>
+        <v>36980</v>
       </c>
       <c r="B17" t="n">
-        <v>-20370.39999999998</v>
+        <v>9343.750000000027</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>40662</v>
+        <v>37011</v>
       </c>
       <c r="B18" t="n">
-        <v>-7479.199999999966</v>
+        <v>4362.500000000019</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>40694</v>
+        <v>37042</v>
       </c>
       <c r="B19" t="n">
-        <v>-21352.19999999995</v>
+        <v>9293.750000000031</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>40724</v>
+        <v>37071</v>
       </c>
       <c r="B20" t="n">
-        <v>-40030.59999999995</v>
+        <v>7293.750000000016</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>40753</v>
+        <v>37103</v>
       </c>
       <c r="B21" t="n">
-        <v>-45653.79999999995</v>
+        <v>4543.750000000014</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>40786</v>
+        <v>37134</v>
       </c>
       <c r="B22" t="n">
-        <v>-56032.99999999998</v>
+        <v>5243.750000000006</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>40816</v>
+        <v>37162</v>
       </c>
       <c r="B23" t="n">
-        <v>-54452.99999999997</v>
+        <v>568.7500000000223</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>40847</v>
+        <v>37195</v>
       </c>
       <c r="B24" t="n">
-        <v>-74304.39999999999</v>
+        <v>-818.7499999999777</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>40877</v>
+        <v>37225</v>
       </c>
       <c r="B25" t="n">
-        <v>-72814.39999999998</v>
+        <v>-818.7499999999777</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>40907</v>
+        <v>37256</v>
       </c>
       <c r="B26" t="n">
-        <v>-72204.39999999999</v>
+        <v>2131.250000000017</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>40939</v>
+        <v>37287</v>
       </c>
       <c r="B27" t="n">
-        <v>-72254.39999999998</v>
+        <v>8175.000000000018</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>40968</v>
+        <v>37315</v>
       </c>
       <c r="B28" t="n">
-        <v>-71359.59999999996</v>
+        <v>5093.750000000024</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>40998</v>
+        <v>37343</v>
       </c>
       <c r="B29" t="n">
-        <v>-71669.59999999998</v>
+        <v>2581.250000000023</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>41029</v>
+        <v>37376</v>
       </c>
       <c r="B30" t="n">
-        <v>-71679.59999999998</v>
+        <v>2500.000000000032</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>41060</v>
+        <v>37407</v>
       </c>
       <c r="B31" t="n">
-        <v>-51087.39999999999</v>
+        <v>6312.500000000027</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>41089</v>
+        <v>37435</v>
       </c>
       <c r="B32" t="n">
-        <v>-48221.40000000001</v>
+        <v>20075.00000000004</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>41121</v>
+        <v>37468</v>
       </c>
       <c r="B33" t="n">
-        <v>-46691.4</v>
+        <v>21612.50000000003</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>41152</v>
+        <v>37498</v>
       </c>
       <c r="B34" t="n">
-        <v>-50781.40000000001</v>
+        <v>20843.75000000004</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>41180</v>
+        <v>37529</v>
       </c>
       <c r="B35" t="n">
-        <v>-60110.80000000005</v>
+        <v>20843.75000000004</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>41213</v>
+        <v>37560</v>
       </c>
       <c r="B36" t="n">
-        <v>-69694.20000000004</v>
+        <v>20843.75000000004</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>41243</v>
+        <v>37589</v>
       </c>
       <c r="B37" t="n">
-        <v>-74594.20000000007</v>
+        <v>20843.75000000004</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B38" t="n">
-        <v>-82315.60000000009</v>
+        <v>22243.75000000002</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>41305</v>
+        <v>37652</v>
       </c>
       <c r="B39" t="n">
-        <v>-83125.60000000009</v>
+        <v>26193.75000000003</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>41333</v>
+        <v>37680</v>
       </c>
       <c r="B40" t="n">
-        <v>-90212.60000000012</v>
+        <v>22650</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>41362</v>
+        <v>37711</v>
       </c>
       <c r="B41" t="n">
-        <v>-93358.40000000014</v>
+        <v>19531.24999999996</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>41394</v>
+        <v>37741</v>
       </c>
       <c r="B42" t="n">
-        <v>-95666.00000000013</v>
+        <v>20487.49999999992</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>41425</v>
+        <v>37771</v>
       </c>
       <c r="B43" t="n">
-        <v>-101420.0000000001</v>
+        <v>25956.24999999992</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>41453</v>
+        <v>37802</v>
       </c>
       <c r="B44" t="n">
-        <v>-101420.0000000001</v>
+        <v>24268.74999999992</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>41486</v>
+        <v>37833</v>
       </c>
       <c r="B45" t="n">
-        <v>-99588.40000000015</v>
+        <v>24268.74999999992</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>41516</v>
+        <v>37862</v>
       </c>
       <c r="B46" t="n">
-        <v>-101084.0000000002</v>
+        <v>22199.99999999991</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B47" t="n">
-        <v>-106937.2000000002</v>
+        <v>23749.99999999991</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>41578</v>
+        <v>37925</v>
       </c>
       <c r="B48" t="n">
-        <v>-106937.2000000002</v>
+        <v>22099.99999999991</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>41607</v>
+        <v>37953</v>
       </c>
       <c r="B49" t="n">
-        <v>-108600.2000000002</v>
+        <v>20506.24999999989</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B50" t="n">
-        <v>-110170.2000000002</v>
+        <v>33031.24999999991</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>41670</v>
+        <v>38016</v>
       </c>
       <c r="B51" t="n">
-        <v>-107539.0000000002</v>
+        <v>33724.99999999989</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>41698</v>
+        <v>38044</v>
       </c>
       <c r="B52" t="n">
-        <v>-98051.00000000026</v>
+        <v>30024.99999999985</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B53" t="n">
-        <v>-105294.4000000003</v>
+        <v>26981.24999999987</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>41759</v>
+        <v>38107</v>
       </c>
       <c r="B54" t="n">
-        <v>-108454.4000000003</v>
+        <v>23631.24999999984</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>41789</v>
+        <v>38135</v>
       </c>
       <c r="B55" t="n">
-        <v>-109444.4000000003</v>
+        <v>18393.74999999985</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B56" t="n">
-        <v>-106294.4000000003</v>
+        <v>18393.74999999985</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>41851</v>
+        <v>38198</v>
       </c>
       <c r="B57" t="n">
-        <v>-105530.8000000003</v>
+        <v>16112.49999999985</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>41880</v>
+        <v>38230</v>
       </c>
       <c r="B58" t="n">
-        <v>-109036.2000000003</v>
+        <v>16112.49999999985</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B59" t="n">
-        <v>-105613.2000000003</v>
+        <v>16112.49999999985</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>41943</v>
+        <v>38289</v>
       </c>
       <c r="B60" t="n">
-        <v>-92153.00000000032</v>
+        <v>21424.99999999985</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>41971</v>
+        <v>38321</v>
       </c>
       <c r="B61" t="n">
-        <v>-72846.00000000035</v>
+        <v>33462.49999999984</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B62" t="n">
-        <v>-37801.80000000032</v>
+        <v>34987.49999999984</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>42034</v>
+        <v>38383</v>
       </c>
       <c r="B63" t="n">
-        <v>-30488.80000000033</v>
+        <v>28462.49999999984</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>42062</v>
+        <v>38411</v>
       </c>
       <c r="B64" t="n">
-        <v>-36068.80000000034</v>
+        <v>27706.24999999984</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B65" t="n">
-        <v>-37428.80000000035</v>
+        <v>27599.99999999983</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>42124</v>
+        <v>38471</v>
       </c>
       <c r="B66" t="n">
-        <v>-43218.80000000036</v>
+        <v>27068.74999999984</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>42153</v>
+        <v>38503</v>
       </c>
       <c r="B67" t="n">
-        <v>-46238.80000000037</v>
+        <v>34299.99999999985</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B68" t="n">
-        <v>-46238.80000000037</v>
+        <v>37556.24999999984</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>42216</v>
+        <v>38562</v>
       </c>
       <c r="B69" t="n">
-        <v>-41625.20000000036</v>
+        <v>37943.74999999983</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>42247</v>
+        <v>38595</v>
       </c>
       <c r="B70" t="n">
-        <v>-40455.80000000037</v>
+        <v>36931.24999999983</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B71" t="n">
-        <v>-39025.80000000037</v>
+        <v>36931.24999999983</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>42307</v>
+        <v>38656</v>
       </c>
       <c r="B72" t="n">
-        <v>-37485.20000000036</v>
+        <v>39449.99999999983</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>42338</v>
+        <v>38686</v>
       </c>
       <c r="B73" t="n">
-        <v>-34532.40000000037</v>
+        <v>42724.99999999977</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>42369</v>
+        <v>38716</v>
       </c>
       <c r="B74" t="n">
-        <v>-18643.40000000038</v>
+        <v>40737.49999999978</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>42398</v>
+        <v>38748</v>
       </c>
       <c r="B75" t="n">
-        <v>-12636.40000000037</v>
+        <v>38618.74999999978</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>42429</v>
+        <v>38776</v>
       </c>
       <c r="B76" t="n">
-        <v>-10346.40000000037</v>
+        <v>37249.99999999978</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B77" t="n">
-        <v>-11836.40000000037</v>
+        <v>37249.99999999978</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>42489</v>
+        <v>38835</v>
       </c>
       <c r="B78" t="n">
-        <v>-7926.400000000373</v>
+        <v>42712.49999999978</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>42521</v>
+        <v>38868</v>
       </c>
       <c r="B79" t="n">
-        <v>-6757.800000000374</v>
+        <v>48012.49999999977</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B80" t="n">
-        <v>-6359.80000000037</v>
+        <v>44762.49999999976</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>42580</v>
+        <v>38929</v>
       </c>
       <c r="B81" t="n">
-        <v>-8919.800000000372</v>
+        <v>44762.49999999976</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>42613</v>
+        <v>38960</v>
       </c>
       <c r="B82" t="n">
-        <v>-8919.800000000372</v>
+        <v>44868.74999999977</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>42643</v>
+        <v>38989</v>
       </c>
       <c r="B83" t="n">
-        <v>-10469.80000000037</v>
+        <v>41562.49999999977</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>42674</v>
+        <v>39021</v>
       </c>
       <c r="B84" t="n">
-        <v>-13299.80000000039</v>
+        <v>40487.49999999977</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>42704</v>
+        <v>39051</v>
       </c>
       <c r="B85" t="n">
-        <v>-12019.80000000039</v>
+        <v>45424.99999999975</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>42734</v>
+        <v>39080</v>
       </c>
       <c r="B86" t="n">
-        <v>-11556.80000000038</v>
+        <v>42443.74999999972</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>42766</v>
+        <v>39113</v>
       </c>
       <c r="B87" t="n">
-        <v>-21493.00000000038</v>
+        <v>42037.49999999972</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>42794</v>
+        <v>39141</v>
       </c>
       <c r="B88" t="n">
-        <v>-21143.00000000039</v>
+        <v>38612.49999999972</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>42825</v>
+        <v>39171</v>
       </c>
       <c r="B89" t="n">
-        <v>-23313.00000000039</v>
+        <v>38868.7499999997</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>42853</v>
+        <v>39202</v>
       </c>
       <c r="B90" t="n">
-        <v>-23313.00000000039</v>
+        <v>42837.49999999969</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>42886</v>
+        <v>39233</v>
       </c>
       <c r="B91" t="n">
-        <v>-27912.80000000038</v>
+        <v>40431.24999999968</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>42916</v>
+        <v>39262</v>
       </c>
       <c r="B92" t="n">
-        <v>-35099.20000000039</v>
+        <v>40843.74999999967</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>42947</v>
+        <v>39294</v>
       </c>
       <c r="B93" t="n">
-        <v>-37859.2000000004</v>
+        <v>39718.74999999965</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>42978</v>
+        <v>39325</v>
       </c>
       <c r="B94" t="n">
-        <v>-37040.4000000004</v>
+        <v>40524.99999999966</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43007</v>
+        <v>39353</v>
       </c>
       <c r="B95" t="n">
-        <v>-33890.40000000039</v>
+        <v>47606.24999999965</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43039</v>
+        <v>39386</v>
       </c>
       <c r="B96" t="n">
-        <v>-32914.2000000004</v>
+        <v>49587.49999999965</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43069</v>
+        <v>39416</v>
       </c>
       <c r="B97" t="n">
-        <v>-33109.40000000041</v>
+        <v>49337.49999999963</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43098</v>
+        <v>39447</v>
       </c>
       <c r="B98" t="n">
-        <v>-24408.80000000041</v>
+        <v>48549.99999999964</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43131</v>
+        <v>39478</v>
       </c>
       <c r="B99" t="n">
-        <v>-23305.20000000042</v>
+        <v>48893.74999999964</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43159</v>
+        <v>39507</v>
       </c>
       <c r="B100" t="n">
-        <v>-29900.60000000041</v>
+        <v>50737.49999999961</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43188</v>
+        <v>39538</v>
       </c>
       <c r="B101" t="n">
-        <v>-29900.60000000041</v>
+        <v>63062.49999999964</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43220</v>
+        <v>39568</v>
       </c>
       <c r="B102" t="n">
-        <v>-27002.80000000041</v>
+        <v>58474.99999999961</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43251</v>
+        <v>39598</v>
       </c>
       <c r="B103" t="n">
-        <v>-26596.20000000042</v>
+        <v>58474.99999999961</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43280</v>
+        <v>39629</v>
       </c>
       <c r="B104" t="n">
-        <v>-25916.20000000043</v>
+        <v>55999.99999999961</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43312</v>
+        <v>39660</v>
       </c>
       <c r="B105" t="n">
-        <v>-32736.20000000043</v>
+        <v>50987.49999999958</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43343</v>
+        <v>39689</v>
       </c>
       <c r="B106" t="n">
-        <v>-32736.20000000043</v>
+        <v>66174.99999999955</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43371</v>
+        <v>39721</v>
       </c>
       <c r="B107" t="n">
-        <v>-31838.80000000045</v>
+        <v>63187.49999999957</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43404</v>
+        <v>39752</v>
       </c>
       <c r="B108" t="n">
-        <v>-35177.40000000048</v>
+        <v>93787.49999999955</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43434</v>
+        <v>39780</v>
       </c>
       <c r="B109" t="n">
-        <v>-2051.400000000489</v>
+        <v>99587.49999999953</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B110" t="n">
-        <v>4173.399999999508</v>
+        <v>105193.7499999996</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43496</v>
+        <v>39843</v>
       </c>
       <c r="B111" t="n">
-        <v>-6425.000000000484</v>
+        <v>99656.24999999952</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43524</v>
+        <v>39871</v>
       </c>
       <c r="B112" t="n">
-        <v>-6115.000000000487</v>
+        <v>94987.49999999953</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43553</v>
+        <v>39903</v>
       </c>
       <c r="B113" t="n">
-        <v>-6375.000000000486</v>
+        <v>94987.49999999953</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43585</v>
+        <v>39933</v>
       </c>
       <c r="B114" t="n">
-        <v>-3472.800000000499</v>
+        <v>92262.49999999952</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43616</v>
+        <v>39962</v>
       </c>
       <c r="B115" t="n">
-        <v>-8384.600000000493</v>
+        <v>102049.9999999995</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43644</v>
+        <v>39994</v>
       </c>
       <c r="B116" t="n">
-        <v>-10410.80000000049</v>
+        <v>99824.99999999948</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43677</v>
+        <v>40025</v>
       </c>
       <c r="B117" t="n">
-        <v>-12450.8000000005</v>
+        <v>95493.74999999948</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43707</v>
+        <v>40056</v>
       </c>
       <c r="B118" t="n">
-        <v>-20076.20000000049</v>
+        <v>92856.24999999948</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B119" t="n">
-        <v>-26662.0000000005</v>
+        <v>99949.99999999945</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43769</v>
+        <v>40116</v>
       </c>
       <c r="B120" t="n">
-        <v>-26662.0000000005</v>
+        <v>93293.74999999942</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43798</v>
+        <v>40147</v>
       </c>
       <c r="B121" t="n">
-        <v>-29852.00000000051</v>
+        <v>94612.49999999939</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B122" t="n">
-        <v>-29492.0000000005</v>
+        <v>86662.49999999936</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43861</v>
+        <v>40207</v>
       </c>
       <c r="B123" t="n">
-        <v>-25466.4000000005</v>
+        <v>87224.99999999933</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43889</v>
+        <v>40235</v>
       </c>
       <c r="B124" t="n">
-        <v>-22021.6000000005</v>
+        <v>93124.99999999933</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B125" t="n">
-        <v>20360.3999999995</v>
+        <v>90231.2499999993</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43951</v>
+        <v>40298</v>
       </c>
       <c r="B126" t="n">
-        <v>37217.5999999995</v>
+        <v>85962.49999999927</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43980</v>
+        <v>40326</v>
       </c>
       <c r="B127" t="n">
-        <v>25717.7999999995</v>
+        <v>86087.49999999921</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B128" t="n">
-        <v>27237.7999999995</v>
+        <v>86787.4999999992</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44043</v>
+        <v>40389</v>
       </c>
       <c r="B129" t="n">
-        <v>24317.79999999951</v>
+        <v>91237.49999999921</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44074</v>
+        <v>40421</v>
       </c>
       <c r="B130" t="n">
-        <v>21811.5999999995</v>
+        <v>94174.9999999992</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B131" t="n">
-        <v>18171.5999999995</v>
+        <v>99243.74999999919</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44134</v>
+        <v>40480</v>
       </c>
       <c r="B132" t="n">
-        <v>18313.39999999951</v>
+        <v>105724.9999999992</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44165</v>
+        <v>40512</v>
       </c>
       <c r="B133" t="n">
-        <v>9669.999999999507</v>
+        <v>99181.24999999917</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B134" t="n">
-        <v>16295.5999999995</v>
+        <v>99181.24999999917</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44225</v>
+        <v>40574</v>
       </c>
       <c r="B135" t="n">
-        <v>22250.39999999951</v>
+        <v>99181.24999999917</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44253</v>
+        <v>40602</v>
       </c>
       <c r="B136" t="n">
-        <v>42105.99999999951</v>
+        <v>99006.24999999917</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44286</v>
+        <v>40633</v>
       </c>
       <c r="B137" t="n">
-        <v>37525.99999999951</v>
+        <v>91968.74999999911</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44316</v>
+        <v>40662</v>
       </c>
       <c r="B138" t="n">
-        <v>37525.99999999951</v>
+        <v>98062.4999999991</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44344</v>
+        <v>40694</v>
       </c>
       <c r="B139" t="n">
-        <v>35934.1999999995</v>
+        <v>88081.24999999908</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44377</v>
+        <v>40724</v>
       </c>
       <c r="B140" t="n">
-        <v>45427.19999999952</v>
+        <v>87262.4999999991</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44407</v>
+        <v>40753</v>
       </c>
       <c r="B141" t="n">
-        <v>42276.3999999995</v>
+        <v>88693.74999999908</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44439</v>
+        <v>40786</v>
       </c>
       <c r="B142" t="n">
-        <v>43006.39999999949</v>
+        <v>83406.24999999908</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44469</v>
+        <v>40816</v>
       </c>
       <c r="B143" t="n">
-        <v>61563.59999999948</v>
+        <v>86968.74999999905</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44498</v>
+        <v>40847</v>
       </c>
       <c r="B144" t="n">
-        <v>69352.99999999948</v>
+        <v>79637.499999999</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44530</v>
+        <v>40877</v>
       </c>
       <c r="B145" t="n">
-        <v>66352.99999999946</v>
+        <v>79637.499999999</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44561</v>
+        <v>40907</v>
       </c>
       <c r="B146" t="n">
-        <v>66222.99999999945</v>
+        <v>81806.249999999</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44592</v>
+        <v>40939</v>
       </c>
       <c r="B147" t="n">
-        <v>78367.99999999942</v>
+        <v>80574.99999999898</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44620</v>
+        <v>40968</v>
       </c>
       <c r="B148" t="n">
-        <v>98326.79999999944</v>
+        <v>83831.24999999897</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
+        <v>40998</v>
+      </c>
+      <c r="B149" t="n">
+        <v>85181.24999999894</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>41029</v>
+      </c>
+      <c r="B150" t="n">
+        <v>86687.49999999894</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>41060</v>
+      </c>
+      <c r="B151" t="n">
+        <v>89787.49999999895</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>41089</v>
+      </c>
+      <c r="B152" t="n">
+        <v>84099.99999999894</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>41121</v>
+      </c>
+      <c r="B153" t="n">
+        <v>83374.99999999891</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>41152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>83374.99999999891</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>41180</v>
+      </c>
+      <c r="B155" t="n">
+        <v>78374.99999999888</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>41213</v>
+      </c>
+      <c r="B156" t="n">
+        <v>77581.24999999886</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>41243</v>
+      </c>
+      <c r="B157" t="n">
+        <v>78374.99999999884</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>41274</v>
+      </c>
+      <c r="B158" t="n">
+        <v>85999.99999999881</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>41305</v>
+      </c>
+      <c r="B159" t="n">
+        <v>93087.49999999879</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>41333</v>
+      </c>
+      <c r="B160" t="n">
+        <v>95543.74999999876</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>41361</v>
+      </c>
+      <c r="B161" t="n">
+        <v>94799.99999999876</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>41394</v>
+      </c>
+      <c r="B162" t="n">
+        <v>90787.4999999987</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>41425</v>
+      </c>
+      <c r="B163" t="n">
+        <v>94668.7499999987</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>41453</v>
+      </c>
+      <c r="B164" t="n">
+        <v>94668.7499999987</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>41486</v>
+      </c>
+      <c r="B165" t="n">
+        <v>91737.4999999987</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>41516</v>
+      </c>
+      <c r="B166" t="n">
+        <v>89012.49999999868</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>41547</v>
+      </c>
+      <c r="B167" t="n">
+        <v>92624.99999999866</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>41578</v>
+      </c>
+      <c r="B168" t="n">
+        <v>89806.24999999863</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>41607</v>
+      </c>
+      <c r="B169" t="n">
+        <v>90937.4999999986</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>41639</v>
+      </c>
+      <c r="B170" t="n">
+        <v>94818.74999999859</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>41670</v>
+      </c>
+      <c r="B171" t="n">
+        <v>88699.99999999862</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>41698</v>
+      </c>
+      <c r="B172" t="n">
+        <v>88487.49999999862</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>41729</v>
+      </c>
+      <c r="B173" t="n">
+        <v>85543.74999999859</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>41759</v>
+      </c>
+      <c r="B174" t="n">
+        <v>85912.49999999859</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>41789</v>
+      </c>
+      <c r="B175" t="n">
+        <v>82712.49999999857</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>41820</v>
+      </c>
+      <c r="B176" t="n">
+        <v>82843.74999999857</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>41851</v>
+      </c>
+      <c r="B177" t="n">
+        <v>83018.74999999857</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>41880</v>
+      </c>
+      <c r="B178" t="n">
+        <v>87724.99999999859</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>41912</v>
+      </c>
+      <c r="B179" t="n">
+        <v>102362.4999999986</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>41943</v>
+      </c>
+      <c r="B180" t="n">
+        <v>101762.4999999985</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>41971</v>
+      </c>
+      <c r="B181" t="n">
+        <v>111287.4999999985</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>42004</v>
+      </c>
+      <c r="B182" t="n">
+        <v>110762.4999999985</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>42034</v>
+      </c>
+      <c r="B183" t="n">
+        <v>124131.2499999985</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>42062</v>
+      </c>
+      <c r="B184" t="n">
+        <v>124174.9999999985</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>42094</v>
+      </c>
+      <c r="B185" t="n">
+        <v>124406.2499999985</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>42124</v>
+      </c>
+      <c r="B186" t="n">
+        <v>123537.4999999985</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>42153</v>
+      </c>
+      <c r="B187" t="n">
+        <v>123443.7499999985</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>42185</v>
+      </c>
+      <c r="B188" t="n">
+        <v>121518.7499999985</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>42216</v>
+      </c>
+      <c r="B189" t="n">
+        <v>120299.9999999985</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>42247</v>
+      </c>
+      <c r="B190" t="n">
+        <v>115024.9999999984</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>42277</v>
+      </c>
+      <c r="B191" t="n">
+        <v>115649.9999999985</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>42307</v>
+      </c>
+      <c r="B192" t="n">
+        <v>113518.7499999985</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>42338</v>
+      </c>
+      <c r="B193" t="n">
+        <v>116774.9999999985</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>42369</v>
+      </c>
+      <c r="B194" t="n">
+        <v>113768.7499999985</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>42398</v>
+      </c>
+      <c r="B195" t="n">
+        <v>116131.2499999985</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>42429</v>
+      </c>
+      <c r="B196" t="n">
+        <v>118799.9999999985</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>42460</v>
+      </c>
+      <c r="B197" t="n">
+        <v>117149.9999999984</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>42489</v>
+      </c>
+      <c r="B198" t="n">
+        <v>117174.9999999984</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>42521</v>
+      </c>
+      <c r="B199" t="n">
+        <v>111568.7499999984</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>42551</v>
+      </c>
+      <c r="B200" t="n">
+        <v>113324.9999999984</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>42580</v>
+      </c>
+      <c r="B201" t="n">
+        <v>110237.4999999983</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>42613</v>
+      </c>
+      <c r="B202" t="n">
+        <v>110412.4999999983</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>42643</v>
+      </c>
+      <c r="B203" t="n">
+        <v>110412.4999999983</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>42674</v>
+      </c>
+      <c r="B204" t="n">
+        <v>113349.9999999983</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>42704</v>
+      </c>
+      <c r="B205" t="n">
+        <v>121993.7499999983</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>42734</v>
+      </c>
+      <c r="B206" t="n">
+        <v>119431.2499999982</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>42766</v>
+      </c>
+      <c r="B207" t="n">
+        <v>116218.7499999982</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>42794</v>
+      </c>
+      <c r="B208" t="n">
+        <v>116218.7499999982</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>42825</v>
+      </c>
+      <c r="B209" t="n">
+        <v>114262.4999999982</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>42853</v>
+      </c>
+      <c r="B210" t="n">
+        <v>113174.9999999982</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B211" t="n">
+        <v>116687.4999999982</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>42916</v>
+      </c>
+      <c r="B212" t="n">
+        <v>119231.2499999982</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>42947</v>
+      </c>
+      <c r="B213" t="n">
+        <v>125224.9999999982</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>42978</v>
+      </c>
+      <c r="B214" t="n">
+        <v>119806.2499999982</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>43007</v>
+      </c>
+      <c r="B215" t="n">
+        <v>119087.4999999982</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>43039</v>
+      </c>
+      <c r="B216" t="n">
+        <v>117231.2499999982</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>43069</v>
+      </c>
+      <c r="B217" t="n">
+        <v>116506.2499999982</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>43098</v>
+      </c>
+      <c r="B218" t="n">
+        <v>116506.2499999982</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>43131</v>
+      </c>
+      <c r="B219" t="n">
+        <v>124774.9999999981</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>43159</v>
+      </c>
+      <c r="B220" t="n">
+        <v>118374.9999999981</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>43188</v>
+      </c>
+      <c r="B221" t="n">
+        <v>119093.7499999981</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>43220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>116174.9999999981</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>43251</v>
+      </c>
+      <c r="B223" t="n">
+        <v>120212.4999999981</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>43280</v>
+      </c>
+      <c r="B224" t="n">
+        <v>118756.2499999981</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>43312</v>
+      </c>
+      <c r="B225" t="n">
+        <v>117856.2499999981</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>43343</v>
+      </c>
+      <c r="B226" t="n">
+        <v>116099.9999999981</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>43371</v>
+      </c>
+      <c r="B227" t="n">
+        <v>113762.4999999981</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>43404</v>
+      </c>
+      <c r="B228" t="n">
+        <v>111668.749999998</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>43434</v>
+      </c>
+      <c r="B229" t="n">
+        <v>109999.999999998</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>43465</v>
+      </c>
+      <c r="B230" t="n">
+        <v>108231.249999998</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>43496</v>
+      </c>
+      <c r="B231" t="n">
+        <v>107843.749999998</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>43524</v>
+      </c>
+      <c r="B232" t="n">
+        <v>107999.999999998</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>43553</v>
+      </c>
+      <c r="B233" t="n">
+        <v>101818.749999998</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>43585</v>
+      </c>
+      <c r="B234" t="n">
+        <v>100637.499999998</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>43616</v>
+      </c>
+      <c r="B235" t="n">
+        <v>102024.9999999979</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>43644</v>
+      </c>
+      <c r="B236" t="n">
+        <v>101143.7499999979</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>43677</v>
+      </c>
+      <c r="B237" t="n">
+        <v>102531.2499999979</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B238" t="n">
+        <v>103956.2499999979</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>43738</v>
+      </c>
+      <c r="B239" t="n">
+        <v>99662.4999999979</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>43769</v>
+      </c>
+      <c r="B240" t="n">
+        <v>99118.7499999979</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>43798</v>
+      </c>
+      <c r="B241" t="n">
+        <v>98449.9999999979</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>43830</v>
+      </c>
+      <c r="B242" t="n">
+        <v>97643.74999999789</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>43861</v>
+      </c>
+      <c r="B243" t="n">
+        <v>94412.49999999786</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>43889</v>
+      </c>
+      <c r="B244" t="n">
+        <v>93074.99999999783</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>43921</v>
+      </c>
+      <c r="B245" t="n">
+        <v>84199.99999999776</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>43951</v>
+      </c>
+      <c r="B246" t="n">
+        <v>84974.99999999776</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B247" t="n">
+        <v>84406.24999999776</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B248" t="n">
+        <v>84406.24999999776</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B249" t="n">
+        <v>90606.24999999774</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>44074</v>
+      </c>
+      <c r="B250" t="n">
+        <v>92824.99999999776</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="B251" t="n">
+        <v>87087.49999999776</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>44134</v>
+      </c>
+      <c r="B252" t="n">
+        <v>86731.24999999776</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>44165</v>
+      </c>
+      <c r="B253" t="n">
+        <v>84918.74999999776</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B254" t="n">
+        <v>86806.24999999772</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>44225</v>
+      </c>
+      <c r="B255" t="n">
+        <v>85312.49999999772</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>44253</v>
+      </c>
+      <c r="B256" t="n">
+        <v>87462.49999999773</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B257" t="n">
+        <v>91799.99999999773</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>44316</v>
+      </c>
+      <c r="B258" t="n">
+        <v>87212.49999999772</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>44344</v>
+      </c>
+      <c r="B259" t="n">
+        <v>86649.99999999769</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B260" t="n">
+        <v>84681.24999999767</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>44407</v>
+      </c>
+      <c r="B261" t="n">
+        <v>81724.99999999767</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="B262" t="n">
+        <v>80843.74999999764</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>44469</v>
+      </c>
+      <c r="B263" t="n">
+        <v>82043.74999999764</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>44498</v>
+      </c>
+      <c r="B264" t="n">
+        <v>82249.99999999761</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="B265" t="n">
+        <v>83168.74999999761</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>44561</v>
+      </c>
+      <c r="B266" t="n">
+        <v>81849.9999999976</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="B267" t="n">
+        <v>79806.24999999758</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B268" t="n">
+        <v>74281.2499999976</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="B149" t="n">
-        <v>136908.3999999994</v>
+      <c r="B269" t="n">
+        <v>79593.74999999757</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B270" t="n">
+        <v>91912.49999999758</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B271" t="n">
+        <v>89581.24999999757</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B272" t="n">
+        <v>91874.99999999756</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B273" t="n">
+        <v>94031.24999999754</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B274" t="n">
+        <v>93368.74999999751</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B275" t="n">
+        <v>96368.74999999751</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B276" t="n">
+        <v>94393.74999999751</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="B277" t="n">
+        <v>92712.4999999975</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="B278" t="n">
+        <v>97343.7499999975</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B279" t="n">
+        <v>96074.99999999747</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B280" t="n">
+        <v>92824.99999999744</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B281" t="n">
+        <v>92824.99999999744</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B282" t="n">
+        <v>93412.49999999742</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B283" t="n">
+        <v>92262.49999999742</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B284" t="n">
+        <v>94643.74999999741</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B285" t="n">
+        <v>91412.49999999737</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B286" t="n">
+        <v>92449.99999999737</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B287" t="n">
+        <v>94949.99999999735</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B288" t="n">
+        <v>95318.74999999735</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B289" t="n">
+        <v>94043.74999999735</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="B290" t="n">
+        <v>95612.49999999731</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="B291" t="n">
+        <v>90449.99999999732</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B292" t="n">
+        <v>90449.99999999732</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="B293" t="n">
+        <v>89331.24999999732</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B294" t="n">
+        <v>92668.74999999731</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B295" t="n">
+        <v>88893.74999999729</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B296" t="n">
+        <v>88824.99999999729</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B297" t="n">
+        <v>88043.74999999729</v>
       </c>
     </row>
   </sheetData>
